--- a/Test Case Template.xlsx
+++ b/Test Case Template.xlsx
@@ -5,34 +5,27 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiminhtamnguyen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiminhtamnguyen/Documents/GitHub/bai-tap-nhom-kho-chiu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9785130-CEC2-AC49-9EF8-EF276E43566B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F859C70-4C57-8540-AA1E-E15685A5AAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="4360" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19060" windowHeight="18000" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test report " sheetId="1" r:id="rId1"/>
-    <sheet name="Login for Staff Feature" sheetId="11" r:id="rId2"/>
-    <sheet name="Logout for Staff Feature" sheetId="21" r:id="rId3"/>
+    <sheet name="View Menu and Invoice" sheetId="11" r:id="rId2"/>
+    <sheet name="Announcements &amp; news " sheetId="21" r:id="rId3"/>
     <sheet name="Food Registration Feature" sheetId="20" r:id="rId4"/>
     <sheet name="View Menu Feature" sheetId="24" r:id="rId5"/>
-    <sheet name="Personal Profile Feature" sheetId="12" r:id="rId6"/>
-    <sheet name="Receive Bill Feature" sheetId="22" r:id="rId7"/>
-    <sheet name="Face Recognition Feature" sheetId="23" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="128">
   <si>
     <t>Test report</t>
   </si>
@@ -186,12 +179,6 @@
     <t>Show same with UI design</t>
   </si>
   <si>
-    <t>Enter true value</t>
-  </si>
-  <si>
-    <t>Do not enter value</t>
-  </si>
-  <si>
     <t>FR - X</t>
   </si>
   <si>
@@ -219,199 +206,7 @@
     <t>LfS - X</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Logged </t>
-  </si>
-  <si>
-    <t>1. Go on the login page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Go on the login page
-2. Enter the account provided and click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-  </si>
-  <si>
-    <t>Tai Khoan ="huynhduchuy1"
-Mat Khau ="Huy.7701"</t>
-  </si>
-  <si>
-    <t>Successful login message and go to home page</t>
-  </si>
-  <si>
-    <t>Enter wrong account or password</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Go on the login page
-2. Enter the data and click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-  </si>
-  <si>
-    <t>Tai Khoan ="huynhduchuy1"
-Mat Khau ="Huy.1234"</t>
-  </si>
-  <si>
-    <t>Show wrong account or password message and then return to Login page</t>
-  </si>
-  <si>
-    <t>Enter more than the allowed number of characters</t>
-  </si>
-  <si>
-    <t>Tai Khoan ="huynhduchuyhuynhduchuy"
-Mat Khau ="Huy.1234"</t>
-  </si>
-  <si>
-    <t>Show message that the account exceeds the allowed number of characters and return to Login page</t>
-  </si>
-  <si>
-    <t>Enter the wrong account and password format</t>
-  </si>
-  <si>
-    <t>Tai Khoan ="huynh duc huy1!"
-Mat Khau ="Huy.7701"</t>
-  </si>
-  <si>
-    <t>Show notices the account must not contain special characters such as : !,@,#,$,%,...</t>
-  </si>
-  <si>
-    <t>Tai Khoan ="huynhduchuy1"
-Mat Khau ="huy7701"</t>
-  </si>
-  <si>
-    <t>Show password message must have at least 1 uppercase character, number and special character</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Go on the login page
-2. Only enter accounts and click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-  </si>
-  <si>
-    <t>Tai Khoan ="huynhduchuy1"</t>
-  </si>
-  <si>
-    <t>Display request to enter password</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Go on the login page
-2. Only enter password and click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-  </si>
-  <si>
-    <t>Mat Khau="Huy.7701"</t>
-  </si>
-  <si>
-    <t>Display request to enter accounts</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Go on the login page
-2. Don't enter any value and click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-  </si>
-  <si>
-    <t>Display request to enter password account</t>
-  </si>
-  <si>
-    <t>LfS</t>
-  </si>
-  <si>
-    <t>Check Logout</t>
-  </si>
-  <si>
     <t>1. Logged</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">MenuToggle Profile
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Logout</t>
-    </r>
-  </si>
-  <si>
-    <t>Log out and go to the login page</t>
-  </si>
-  <si>
-    <t>LOfS</t>
   </si>
   <si>
     <t>Personal Profile Feature</t>
@@ -538,432 +333,7 @@
     <t>FR</t>
   </si>
   <si>
-    <t>RB</t>
-  </si>
-  <si>
     <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Go to the Staff Homepage
-2. Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Personal Profile</t>
-    </r>
-  </si>
-  <si>
-    <t>Go to Personal Profile page</t>
-  </si>
-  <si>
-    <t>Name="Nguyễn Văn A"
-Birthday="07/07/1992"
-City="Đà Nẵng"</t>
-  </si>
-  <si>
-    <t>Full Name="Nguyễn Văn A"
-Birthday="07/07/1992"</t>
-  </si>
-  <si>
-    <t>Full Name="Nguyễn Văn A"</t>
-  </si>
-  <si>
-    <t>Name="Nguyễn Văn A"
-Birthday="07/07/1992"
-City="Đà Nẵng"
-District="Thanh Khê"</t>
-  </si>
-  <si>
-    <t>Name="Nguyễn Văn A"
-Birthday="07/07/1992"
-City="Đà Nẵng"
-District="Thanh Khê"
-Gender="Male"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name="Nguyễn Văn A"
-Birthday="07/07/1992"
-City="Đà Nẵng"
-District="Thanh Khê"
-Gender="Male"
-Number Phone="0905123456"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name="Nguyễn Văn A"
-Birthday="07/07/1992"
-City="Đà Nẵng"
-District="Thanh Khê"
-Gender="Male"
-Number Phone="a0905a1234"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name="Nguyễn Văn A"
-Birthday="07/07/1992"
-City="Đà Nẵng"
-District="Thanh Khê"
-Gender="Male"
-Number Phone="0905123456"
-Department="Tài Chính"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name="Nguyễn Văn A"
-Birthday="07/07/1992"
-City="Đà Nẵng"
-District="Thanh Khê"
-Gender="Male"
-Number Phone="0905123456"
-Department="Tài Chính"
-Identification Card="25211216012"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name="Nguyễn Văn A"
-Birthday="07/07/1992"
-City="Đà Nẵng"
-District="Thanh Khê"
-Ward="B"
-Avatar="avatar.png"
-Gender="Male"
-Ethnic="Kinh"
-Number Phone="0905123456"
-Department="Tài Chính"
-Identification Card="25211216012"
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show alert </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"The Department field and the Identity card field are mandatory"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show alert </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"The Birthday field, the City field, the District field, the Gender field, the Number Phone field, the Department field and the Identity card field are mandatory"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show alert </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"The City field, the District field, the Gender field, the Number Phone field, the Department field and the Identity card field are mandatory"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show alert </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"The District field, the Gender field, the Number Phone field, the Department field and the Identity card field are mandatory"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show alert </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"The Gender field, the Number Phone field, the Department field and the Identity card field are mandatory"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show alert </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"The Number Phone field, the Department field and the Identity card field are mandatory"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show alert </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"The Identity card field are mandatory"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show alert </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"The Number Phone must be a number. The Department field and the Identity card field are mandatory"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Display the message </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Confirmation successful information"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Display the message </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Fill in the required fields"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Personal Profile page
-2. Press button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Comfirm"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Personal Profile page
-2. Fill textinput Full Name, Birthday, City, District, Ward, Avatar, Gender, Ethnic, Number Phone, Department, Identification Card
-3. Press button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Comfirm"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Personal Profile page
-2. Fill textinput Full Name, Birthday, City, District, Gender, Number Phone, Department, Identification Card
-3. Press button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Comfirm"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Personal Profile page
-2. Fill textinput Full Name, Birthday, City, District, Gender, Number Phone, Department
-3. Press button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Comfirm"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Personal Profile page
-2. Fill textinput Full Name, Birthday, City, District, Gender, Number Phone
-3. Press button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Comfirm"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Personal Profile page
-2. Fill textinput Full Name
-3. Press button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Comfirm"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Personal Profile page
-2. Fill textinput Full Name, Birthday
-3. Press button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Comfirm"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Personal Profile page
-2. Fill textinput Full Name, Birthday, City
-3. Press button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Comfirm"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Personal Profile page
-2. Fill textinput Full Name, Birthday, City, District
-3. Press button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Comfirm"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Personal Profile page
-2. Fill textinput Full Name, Birthday, City, District, Gender
-3. Press button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Comfirm"</t>
-    </r>
-  </si>
-  <si>
-    <t>Check Add Personal Profile Function</t>
   </si>
   <si>
     <t>View Menu Feature</t>
@@ -1000,64 +370,171 @@
     </r>
   </si>
   <si>
-    <t>RB - 1</t>
+    <t>Dang Nguyen Nhat Quang</t>
   </si>
   <si>
-    <t>RB - 2</t>
+    <t>1. Touch "chọn món"</t>
   </si>
   <si>
-    <t>Check Receive Bill Function</t>
+    <t>True Menu</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Receive Bill </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">when paying for the food </t>
-    </r>
+    <t>True prices</t>
   </si>
   <si>
-    <t>Bill is printed</t>
+    <t>View Menu and Invoice</t>
   </si>
   <si>
-    <t>FR - 1</t>
+    <t>VMaI</t>
   </si>
   <si>
-    <t>Check Face Recognition Function</t>
+    <t>1. Check menu have all food.
+2. Check all food are true name</t>
   </si>
   <si>
-    <t>1. Put your face in the camera at the food counter</t>
+    <t>1. Check the prices are true in all food</t>
   </si>
   <si>
-    <t>The system recognizes the face and returns a success or failure message</t>
+    <t>Roll The Menu</t>
+  </si>
+  <si>
+    <t>1. roll the menu</t>
+  </si>
+  <si>
+    <t>The menu can be roll</t>
+  </si>
+  <si>
+    <t>24/12/2023</t>
+  </si>
+  <si>
+    <t>24/12/2024</t>
+  </si>
+  <si>
+    <t>24/12/2025</t>
+  </si>
+  <si>
+    <t>The true menu from kfc</t>
+  </si>
+  <si>
+    <t>The menu have all food and the names are true.</t>
+  </si>
+  <si>
+    <t>all food have true prices are true.</t>
+  </si>
+  <si>
+    <t>Choosing Food &amp; Drinks </t>
+  </si>
+  <si>
+    <t>1. Click in "thêm" in a food in menu.</t>
+  </si>
+  <si>
+    <t>the name of food is added in invoice</t>
+  </si>
+  <si>
+    <t>The prices in invoice is true</t>
+  </si>
+  <si>
+    <t>1. Check the prices in invoice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The prices are true </t>
+  </si>
+  <si>
+    <t>1. Touch "chọn món".                  2. Click in "thêm" in a food in menu.</t>
+  </si>
+  <si>
+    <t>1. Add 15 kind of food and a random number for each food</t>
+  </si>
+  <si>
+    <t>No error in invoice.</t>
+  </si>
+  <si>
+    <t>Many food are added into invoice</t>
+  </si>
+  <si>
+    <t>Into money are true.</t>
+  </si>
+  <si>
+    <t>1. Click in "thêm" in a food in menu.
+2. choosing some food and number.</t>
+  </si>
+  <si>
+    <t>into money is true</t>
+  </si>
+  <si>
+    <t>Correct total money</t>
+  </si>
+  <si>
+    <t>The total money is true</t>
+  </si>
+  <si>
+    <t>1. add discount code.</t>
+  </si>
+  <si>
+    <t>The money to be paid is true</t>
+  </si>
+  <si>
+    <t>Add discount code</t>
+  </si>
+  <si>
+    <t>Add 2 discount code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. add the first discount code.    2. add the second discount code. </t>
+  </si>
+  <si>
+    <t>The second discount code can't be added</t>
+  </si>
+  <si>
+    <t>don't add discount code</t>
+  </si>
+  <si>
+    <t>1. delete all discount code.</t>
+  </si>
+  <si>
+    <t>The invoice is true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Announcements &amp; news </t>
+  </si>
+  <si>
+    <t>A&amp;N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click into view the announcements &amp; news </t>
+  </si>
+  <si>
+    <t>1. Check the announcements &amp; news user Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check all announcements &amp; news </t>
+  </si>
+  <si>
+    <t>1. Check the announcements &amp; news</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>1. click the "close" button</t>
+  </si>
+  <si>
+    <t>Get in the main menu</t>
+  </si>
+  <si>
+    <t>The announcements &amp; news are true</t>
+  </si>
+  <si>
+    <t>The true User Interface</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1162,12 +639,12 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1214,12 +691,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1380,7 +851,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1454,38 +925,19 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="16" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="16" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1497,92 +949,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1602,10 +968,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1614,15 +976,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1634,6 +987,19 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1649,242 +1015,55 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{9E6B5C91-FD65-4A33-9A45-71D1D891ADF4}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{4AAF1A3C-C55A-4C29-BD25-AA6EBD5F9046}"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9A317"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE05720"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9A317"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE05720"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9A317"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE05720"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9A317"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE05720"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9A317"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE05720"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <b/>
@@ -2558,7 +1737,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -2572,14 +1751,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2665,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2781,7 +1960,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -2812,7 +1991,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="81"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="22" t="s">
         <v>39</v>
       </c>
@@ -2841,7 +2020,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="81"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="22" t="s">
         <v>40</v>
       </c>
@@ -2870,7 +2049,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="22" t="s">
         <v>41</v>
       </c>
@@ -2926,7 +2105,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -2957,7 +2136,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
@@ -2986,7 +2165,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="76"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="13" t="s">
         <v>9</v>
       </c>
@@ -3015,7 +2194,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="76"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="13" t="s">
         <v>10</v>
       </c>
@@ -3139,15 +2318,15 @@
         <v>1</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="37">
+        <v>45</v>
+      </c>
+      <c r="E20" s="33">
         <v>44884</v>
       </c>
       <c r="F20" s="1"/>
@@ -3176,15 +2355,15 @@
         <v>2</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="37">
+        <v>46</v>
+      </c>
+      <c r="E21" s="33">
         <v>44884</v>
       </c>
       <c r="F21" s="1"/>
@@ -3213,15 +2392,15 @@
         <v>3</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="37">
+        <v>47</v>
+      </c>
+      <c r="E22" s="33">
         <v>44884</v>
       </c>
       <c r="F22" s="1"/>
@@ -3250,15 +2429,15 @@
         <v>4</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="37">
+        <v>69</v>
+      </c>
+      <c r="E23" s="33">
         <v>44884</v>
       </c>
       <c r="F23" s="1"/>
@@ -3287,15 +2466,15 @@
         <v>5</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="37">
+        <v>54</v>
+      </c>
+      <c r="E24" s="33">
         <v>44884</v>
       </c>
       <c r="F24" s="1"/>
@@ -3320,19 +2499,19 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+      <c r="A25" s="32">
         <v>6</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="37">
+      <c r="B25" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="33">
         <v>44884</v>
       </c>
       <c r="F25" s="1"/>
@@ -3361,15 +2540,15 @@
         <v>7</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="37">
+        <v>49</v>
+      </c>
+      <c r="E26" s="33">
         <v>44884</v>
       </c>
       <c r="F26" s="1"/>
@@ -31041,10 +30220,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -31064,79 +30243,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="90"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -31152,44 +30331,44 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="18">
-        <f>COUNTIF($J$12:$J$474, "&lt;&gt;")</f>
-        <v>9</v>
+        <f>COUNTIF($J$12:$J$475, "&lt;&gt;")</f>
+        <v>12</v>
       </c>
       <c r="D6" s="18">
-        <f>COUNTIF($J$12:$J$473, "PASS")</f>
-        <v>9</v>
+        <f>COUNTIF($J$12:$J$474, "PASS")</f>
+        <v>12</v>
       </c>
       <c r="E6" s="18">
-        <f>COUNTIF($J$12:$J$476,"FAIL")</f>
+        <f>COUNTIF($J$12:$J$477,"FAIL")</f>
         <v>0</v>
       </c>
       <c r="F6" s="18">
-        <f>COUNTIF($J$12:$J$476,"NOT IMPLEMENTED")</f>
+        <f>COUNTIF($J$12:$J$477,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>COUNTIF($J$12:$J$476,"SKIPPED")</f>
+        <f>COUNTIF($J$12:$J$477,"SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="90"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -31205,37 +30384,37 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="18">
-        <f>COUNTIF($L$12:$L$474, "&lt;&gt;")</f>
-        <v>9</v>
+        <f>COUNTIF($L$12:$L$475, "&lt;&gt;")</f>
+        <v>12</v>
       </c>
       <c r="D8" s="18">
-        <f>COUNTIF($L$12:$L$474, "PASS")</f>
-        <v>9</v>
+        <f>COUNTIF($L$12:$L$475, "PASS")</f>
+        <v>12</v>
       </c>
       <c r="E8" s="18">
-        <f>COUNTIF($L$12:$L$474, "FAIL")</f>
+        <f>COUNTIF($L$12:$L$475, "FAIL")</f>
         <v>0</v>
       </c>
       <c r="F8" s="18">
-        <f>COUNTIF($L$12:$L$474,"NOT IMPLEMENTED")</f>
+        <f>COUNTIF($L$12:$L$475,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>COUNTIF($L$12:$L$474, "SKIPPED")</f>
+        <f>COUNTIF($L$12:$L$475, "SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -31253,442 +30432,532 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="83" t="s">
+      <c r="L10" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="83" t="s">
-        <v>139</v>
+      <c r="M10" s="66" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.15">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>1</v>
       </c>
-      <c r="B12" s="25" t="str">
-        <f t="shared" ref="B12:B20" si="0">CONCATENATE($C$2, " - ", A12)</f>
-        <v>LfS - 1</v>
-      </c>
-      <c r="C12" s="25" t="str">
+      <c r="B12" s="65" t="str">
+        <f t="shared" ref="B12:B23" si="0">CONCATENATE($C$2, " - ", A12)</f>
+        <v>VMaI - 1</v>
+      </c>
+      <c r="C12" s="65" t="str">
         <f>$C$1</f>
-        <v>Login for Staff Feature</v>
-      </c>
-      <c r="D12" s="25" t="s">
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D12" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="4" t="s">
+      <c r="E12" s="65"/>
+      <c r="F12" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="38">
-        <v>44897</v>
-      </c>
-      <c r="J12" s="24" t="s">
+      <c r="I12" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="24" t="s">
+      <c r="K12" s="70"/>
+      <c r="L12" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="88.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32">
+      <c r="M12" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="59" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="31">
         <v>2</v>
       </c>
-      <c r="B13" s="25" t="str">
+      <c r="B13" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>LfS - 2</v>
-      </c>
-      <c r="C13" s="25" t="str">
-        <f t="shared" ref="C13:C20" si="1">$C$1</f>
-        <v>Login for Staff Feature</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="38">
-        <v>44897</v>
-      </c>
-      <c r="J13" s="24" t="s">
+        <v>VMaI - 2</v>
+      </c>
+      <c r="C13" s="65" t="str">
+        <f>$C$1</f>
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="24" t="s">
+      <c r="K13" s="70"/>
+      <c r="L13" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
+      <c r="M13" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="88.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="31">
         <v>3</v>
       </c>
-      <c r="B14" s="25" t="str">
+      <c r="B14" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>LfS - 3</v>
-      </c>
-      <c r="C14" s="25" t="str">
+        <v>VMaI - 3</v>
+      </c>
+      <c r="C14" s="65" t="str">
+        <f t="shared" ref="C14:C23" si="1">$C$1</f>
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="70"/>
+      <c r="L14" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="31">
+        <v>4</v>
+      </c>
+      <c r="B15" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>VMaI - 4</v>
+      </c>
+      <c r="C15" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>Login for Staff Feature</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="38">
-        <v>44897</v>
-      </c>
-      <c r="J14" s="24" t="s">
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="24" t="s">
+      <c r="K15" s="70"/>
+      <c r="L15" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="126" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
-        <v>4</v>
-      </c>
-      <c r="B15" s="25" t="str">
+      <c r="M15" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="31">
+        <v>5</v>
+      </c>
+      <c r="B16" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>LfS - 4</v>
-      </c>
-      <c r="C15" s="25" t="str">
+        <v>VMaI - 5</v>
+      </c>
+      <c r="C16" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>Login for Staff Feature</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="38">
-        <v>44897</v>
-      </c>
-      <c r="J15" s="24" t="s">
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="72"/>
+      <c r="H16" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="24" t="s">
+      <c r="K16" s="70"/>
+      <c r="L16" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A16" s="32">
-        <v>5</v>
-      </c>
-      <c r="B16" s="25" t="str">
+      <c r="M16" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.15">
+      <c r="A17" s="31">
+        <v>6</v>
+      </c>
+      <c r="B17" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>LfS - 5</v>
-      </c>
-      <c r="C16" s="25" t="str">
+        <v>VMaI - 6</v>
+      </c>
+      <c r="C17" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>Login for Staff Feature</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="38">
-        <v>44897</v>
-      </c>
-      <c r="J16" s="24" t="s">
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="72"/>
+      <c r="H17" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="24" t="s">
+      <c r="K17" s="70"/>
+      <c r="L17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="126" x14ac:dyDescent="0.15">
-      <c r="A17" s="32">
-        <v>6</v>
-      </c>
-      <c r="B17" s="25" t="str">
+      <c r="M17" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.15">
+      <c r="A18" s="31">
+        <v>7</v>
+      </c>
+      <c r="B18" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>LfS - 6</v>
-      </c>
-      <c r="C17" s="25" t="str">
+        <v>VMaI - 7</v>
+      </c>
+      <c r="C18" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>Login for Staff Feature</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="38">
-        <v>44897</v>
-      </c>
-      <c r="J17" s="24" t="s">
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="72"/>
+      <c r="H18" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="24" t="s">
+      <c r="K18" s="70"/>
+      <c r="L18" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A18" s="32">
+      <c r="M18" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.15">
+      <c r="A19" s="31">
+        <v>8</v>
+      </c>
+      <c r="B19" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>VMaI - 8</v>
+      </c>
+      <c r="C19" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="72"/>
+      <c r="H19" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="25" t="str">
+      <c r="K19" s="70"/>
+      <c r="L19" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.15">
+      <c r="A20" s="31">
+        <v>9</v>
+      </c>
+      <c r="B20" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>LfS - 7</v>
-      </c>
-      <c r="C18" s="25" t="str">
+        <v>VMaI - 9</v>
+      </c>
+      <c r="C20" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>Login for Staff Feature</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="38">
-        <v>44897</v>
-      </c>
-      <c r="J18" s="24" t="s">
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="24" t="s">
+      <c r="K20" s="70"/>
+      <c r="L20" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A19" s="32">
-        <v>8</v>
-      </c>
-      <c r="B19" s="25" t="str">
+      <c r="M20" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.15">
+      <c r="A21" s="31">
+        <v>10</v>
+      </c>
+      <c r="B21" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>LfS - 8</v>
-      </c>
-      <c r="C19" s="25" t="str">
+        <v>VMaI - 10</v>
+      </c>
+      <c r="C21" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>Login for Staff Feature</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="29" t="s">
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="73"/>
+      <c r="H21" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="70"/>
+      <c r="L21" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="38">
-        <v>44897</v>
-      </c>
-      <c r="J19" s="24" t="s">
+    </row>
+    <row r="22" spans="1:13" ht="90" x14ac:dyDescent="0.15">
+      <c r="A22" s="31">
+        <v>11</v>
+      </c>
+      <c r="B22" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>VMaI - 11</v>
+      </c>
+      <c r="C22" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="73"/>
+      <c r="H22" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="24" t="s">
+      <c r="K22" s="70"/>
+      <c r="L22" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="32">
-        <v>9</v>
-      </c>
-      <c r="B20" s="25" t="str">
+      <c r="M22" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.15">
+      <c r="A23" s="31">
+        <v>12</v>
+      </c>
+      <c r="B23" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>LfS - 9</v>
-      </c>
-      <c r="C20" s="25" t="str">
+        <v>VMaI - 12</v>
+      </c>
+      <c r="C23" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>Login for Staff Feature</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="38">
-        <v>44897</v>
-      </c>
-      <c r="J20" s="24" t="s">
+        <v>View Menu and Invoice</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="73"/>
+      <c r="H23" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="24" t="s">
+      <c r="K23" s="70"/>
+      <c r="L23" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="39" t="s">
-        <v>39</v>
+      <c r="M23" s="74" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
@@ -31698,36 +30967,51 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="J12:J20">
-    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="FAIL">
+  <phoneticPr fontId="17" type="noConversion"/>
+  <conditionalFormatting sqref="J12:J23">
+    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J20">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="SKIPPED">
+  <conditionalFormatting sqref="J12:J23">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L20">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="FAIL">
+  <conditionalFormatting sqref="L12:L23">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L20">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="SKIPPED">
+  <conditionalFormatting sqref="L12:L23">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31740,7 +31024,7 @@
           <x14:formula1>
             <xm:f>'Test report '!$B$13:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>J12:J20 L12:L20</xm:sqref>
+          <xm:sqref>J12:J23 L12:L23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -31751,10 +31035,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4D1147-D17D-438F-A044-888A51941194}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -31774,79 +31058,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="90"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -31862,21 +31146,21 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="18">
         <f>COUNTIF($J$12:$J$489, "&lt;&gt;")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="18">
-        <f>COUNTIF($J$12:$J$488, "PASS")</f>
-        <v>1</v>
+        <f>COUNTIF($L$12:$L$488, "PASS")</f>
+        <v>3</v>
       </c>
       <c r="E6" s="18">
         <f>COUNTIF($J$12:$J$491,"FAIL")</f>
@@ -31890,16 +31174,16 @@
         <f>COUNTIF($J$12:$J$491,"SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="90"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -31915,21 +31199,21 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="18">
         <f>COUNTIF($L$12:$L$489, "&lt;&gt;")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="18">
         <f>COUNTIF($L$12:$L$489, "PASS")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="18">
         <f>COUNTIF($L$12:$L$489, "FAIL")</f>
@@ -31943,9 +31227,9 @@
         <f>COUNTIF($L$12:$L$489, "SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -31963,109 +31247,180 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="83" t="s">
+      <c r="L10" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="83" t="s">
-        <v>139</v>
+      <c r="M10" s="58" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.15">
-      <c r="A12" s="32">
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+    </row>
+    <row r="12" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
         <v>1</v>
       </c>
       <c r="B12" s="25" t="str">
         <f t="shared" ref="B12" si="0">CONCATENATE($C$2, " - ", A12)</f>
-        <v>LOfS - 1</v>
+        <v>A&amp;N - 1</v>
       </c>
       <c r="C12" s="25" t="str">
-        <f t="shared" ref="C12" si="1">$C$1</f>
-        <v>Logout for Staff Feature</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>81</v>
+        <f t="shared" ref="C12:C14" si="1">$C$1</f>
+        <v xml:space="preserve">Announcements &amp; news </v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>42</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="33"/>
+        <v>120</v>
+      </c>
+      <c r="G12" s="65"/>
       <c r="H12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="40">
+        <v>127</v>
+      </c>
+      <c r="I12" s="34">
         <v>44897</v>
       </c>
       <c r="J12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="41" t="s">
-        <v>39</v>
+      <c r="M12" s="78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="25">
+        <v>2</v>
+      </c>
+      <c r="B13" s="25" t="str">
+        <f t="shared" ref="B13:B14" si="2">CONCATENATE($C$2, " - ", A13)</f>
+        <v>A&amp;N - 2</v>
+      </c>
+      <c r="C13" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Announcements &amp; news </v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="65"/>
+      <c r="H13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="34">
+        <v>44898</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="77"/>
+      <c r="L13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
+        <v>3</v>
+      </c>
+      <c r="B14" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>A&amp;N - 3</v>
+      </c>
+      <c r="C14" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Announcements &amp; news </v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="65"/>
+      <c r="H14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="34">
+        <v>44899</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="77"/>
+      <c r="L14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="78" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -32082,36 +31437,43 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="FAIL">
+  <conditionalFormatting sqref="J12:J14">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="30" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="SKIPPED">
+  <conditionalFormatting sqref="J12:J14">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="FAIL">
+  <conditionalFormatting sqref="L12:L14">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="SKIPPED">
+  <conditionalFormatting sqref="L12:L14">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32124,7 +31486,7 @@
           <x14:formula1>
             <xm:f>'Test report '!$B$13:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>J12 L12</xm:sqref>
+          <xm:sqref>J12:J14 L12:L14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -32158,14 +31520,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="88"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="49"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -32176,14 +31538,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="95"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="53"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -32194,12 +31556,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="88"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -32210,14 +31572,14 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="H4" s="7"/>
@@ -32227,10 +31589,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="90"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -32252,8 +31614,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="8">
         <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
         <v>6</v>
@@ -32280,10 +31642,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="90"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -32305,8 +31667,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="8">
         <f>COUNTIF($L$12:$L$480, "&lt;&gt;")</f>
         <v>6</v>
@@ -32347,60 +31709,60 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="83" t="s">
+      <c r="L10" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="83" t="s">
-        <v>139</v>
+      <c r="M10" s="56" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
@@ -32418,16 +31780,16 @@
         <v>42</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="35">
         <v>44897</v>
       </c>
       <c r="J12" s="24" t="s">
@@ -32437,7 +31799,7 @@
       <c r="L12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="M12" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -32454,19 +31816,19 @@
         <v>Food Registration Feature</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="42">
+        <v>74</v>
+      </c>
+      <c r="I13" s="35">
         <v>44897</v>
       </c>
       <c r="J13" s="24" t="s">
@@ -32476,7 +31838,7 @@
       <c r="L13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="43" t="s">
+      <c r="M13" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -32493,19 +31855,19 @@
         <v>Food Registration Feature</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="42">
+        <v>58</v>
+      </c>
+      <c r="I14" s="35">
         <v>44897</v>
       </c>
       <c r="J14" s="24" t="s">
@@ -32515,7 +31877,7 @@
       <c r="L14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="43" t="s">
+      <c r="M14" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -32532,21 +31894,21 @@
         <v>Food Registration Feature</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="42">
+        <v>60</v>
+      </c>
+      <c r="I15" s="35">
         <v>44897</v>
       </c>
       <c r="J15" s="24" t="s">
@@ -32556,7 +31918,7 @@
       <c r="L15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="43" t="s">
+      <c r="M15" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -32573,21 +31935,21 @@
         <v>Food Registration Feature</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="42">
+        <v>64</v>
+      </c>
+      <c r="I16" s="35">
         <v>44897</v>
       </c>
       <c r="J16" s="24" t="s">
@@ -32597,7 +31959,7 @@
       <c r="L16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="43" t="s">
+      <c r="M16" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -32614,21 +31976,21 @@
         <v>Food Registration Feature</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="42">
+        <v>60</v>
+      </c>
+      <c r="I17" s="35">
         <v>44897</v>
       </c>
       <c r="J17" s="24" t="s">
@@ -32638,19 +32000,12 @@
       <c r="L17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="43" t="s">
+      <c r="M17" s="36" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -32667,84 +32022,91 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J17 L12:L17">
-    <cfRule type="containsText" dxfId="43" priority="35" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="36" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="22" priority="36" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J17 L12:L17">
-    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="SKIPPED">
+    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="34" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="20" priority="34" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14 L14">
-    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="18" priority="32" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14 L14">
-    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="SKIPPED">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="30" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="16" priority="30" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15 L15">
-    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="28" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15 L15">
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="SKIPPED">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16 L16">
-    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="10" priority="24" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16 L16">
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="SKIPPED">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17 L17">
-    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17 L17">
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="SKIPPED">
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="4" priority="18" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32777,7 +32139,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -32799,75 +32161,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="99" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="87" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -32883,13 +32245,13 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="18">
         <f>COUNTIF($J$12:$J$475, "&lt;&gt;")</f>
         <v>2</v>
@@ -32910,15 +32272,15 @@
         <f>COUNTIF($J$12:$J$477,"SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -32934,13 +32296,13 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="18">
         <f>COUNTIF($L$12:$L$475, "&lt;&gt;")</f>
         <v>2</v>
@@ -32961,65 +32323,65 @@
         <f>COUNTIF($L$12:$L$475, "SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="83" t="s">
+      <c r="L10" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="83" t="s">
-        <v>139</v>
+      <c r="M10" s="56" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
@@ -33037,16 +32399,16 @@
         <v>42</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="37">
         <v>44897</v>
       </c>
       <c r="J12" s="24" t="s">
@@ -33056,7 +32418,7 @@
       <c r="L12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="38" t="s">
         <v>40</v>
       </c>
     </row>
@@ -33073,19 +32435,19 @@
         <v>View Menu Feature</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="44">
+        <v>74</v>
+      </c>
+      <c r="I13" s="37">
         <v>44897</v>
       </c>
       <c r="J13" s="24" t="s">
@@ -33095,19 +32457,12 @@
       <c r="L13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="38" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -33124,20 +32479,27 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J13 L12:L13">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J13 L12:L13">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="SKIPPED">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33161,1668 +32523,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:M24"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="18">
-        <f>COUNTIF($J$12:$J$471, "&lt;&gt;")</f>
-        <v>13</v>
-      </c>
-      <c r="D6" s="18">
-        <f>COUNTIF($J$12:$J$470, "PASS")</f>
-        <v>11</v>
-      </c>
-      <c r="E6" s="18">
-        <f>COUNTIF($J$12:$J$473,"FAIL")</f>
-        <v>2</v>
-      </c>
-      <c r="F6" s="18">
-        <f>COUNTIF($J$12:$J$473,"NOT IMPLEMENTED")</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <f>COUNTIF($J$12:$J$473,"SKIPPED")</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="18">
-        <f>COUNTIF($L$12:$L$471, "&lt;&gt;")</f>
-        <v>13</v>
-      </c>
-      <c r="D8" s="18">
-        <f>COUNTIF($L$12:$L$471, "PASS")</f>
-        <v>13</v>
-      </c>
-      <c r="E8" s="18">
-        <f>COUNTIF($L$12:$L$471, "FAIL")</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <f>COUNTIF($L$12:$L$471,"NOT IMPLEMENTED")</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <f>COUNTIF($L$12:$L$471, "SKIPPED")</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="1:13" ht="132.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32">
-        <v>1</v>
-      </c>
-      <c r="B12" s="25" t="str">
-        <f t="shared" ref="B12:B24" si="0">CONCATENATE($C$2, " - ", A12)</f>
-        <v>PP - 1</v>
-      </c>
-      <c r="C12" s="25" t="str">
-        <f>$C$1</f>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32">
-        <v>2</v>
-      </c>
-      <c r="B13" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 2</v>
-      </c>
-      <c r="C13" s="25" t="str">
-        <f t="shared" ref="C13:C24" si="1">$C$1</f>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="192.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
-        <v>3</v>
-      </c>
-      <c r="B14" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 3</v>
-      </c>
-      <c r="C14" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="173.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
-        <v>4</v>
-      </c>
-      <c r="B15" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 4</v>
-      </c>
-      <c r="C15" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="160.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32">
-        <v>5</v>
-      </c>
-      <c r="B16" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 5</v>
-      </c>
-      <c r="C16" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32">
-        <v>6</v>
-      </c>
-      <c r="B17" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 6</v>
-      </c>
-      <c r="C17" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="148.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32">
-        <v>7</v>
-      </c>
-      <c r="B18" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 7</v>
-      </c>
-      <c r="C18" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="187.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32">
-        <v>8</v>
-      </c>
-      <c r="B19" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 8</v>
-      </c>
-      <c r="C19" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="177.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32">
-        <v>9</v>
-      </c>
-      <c r="B20" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 9</v>
-      </c>
-      <c r="C20" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="187.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32">
-        <v>10</v>
-      </c>
-      <c r="B21" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 10</v>
-      </c>
-      <c r="C21" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="225" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32">
-        <v>11</v>
-      </c>
-      <c r="B22" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 11</v>
-      </c>
-      <c r="C22" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="34"/>
-      <c r="L22" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="225" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32">
-        <v>12</v>
-      </c>
-      <c r="B23" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 12</v>
-      </c>
-      <c r="C23" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="34"/>
-      <c r="L23" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="210.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="32">
-        <v>13</v>
-      </c>
-      <c r="B24" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>PP - 13</v>
-      </c>
-      <c r="C24" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Personal Profile Feature</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="59">
-        <v>44897</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="K10:K11"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J12:J24">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J24">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="SKIPPED">
-      <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L24">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",L12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L24">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="SKIPPED">
-      <formula>NOT(ISERROR(SEARCH("SKIPPED",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",L12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{4E998E22-6CA2-4320-9532-D368AA134D47}">
-          <x14:formula1>
-            <xm:f>'Test report '!$B$13:$B$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>J12:J24 L12:L24</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68098FC6-AE06-4864-A661-204FFEDF10CF}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:Z13"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="18">
-        <f>COUNTIF($J$12:$J$475, "&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="18">
-        <f>COUNTIF($J$12:$J$474, "PASS")</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
-        <f>COUNTIF($J$12:$J$477,"FAIL")</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <f>COUNTIF($J$12:$J$477,"NOT IMPLEMENTED")</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="18">
-        <f>COUNTIF($J$12:$J$477,"SKIPPED")</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="18">
-        <f>COUNTIF($L$12:$L$475, "&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="D8" s="18">
-        <f>COUNTIF($L$12:$L$475, "PASS")</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="18">
-        <f>COUNTIF($L$12:$L$475, "FAIL")</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <f>COUNTIF($L$12:$L$475,"NOT IMPLEMENTED")</f>
-        <v>2</v>
-      </c>
-      <c r="G8" s="18">
-        <f>COUNTIF($L$12:$L$475, "SKIPPED")</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="1:26" ht="105.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61">
-        <v>1</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="65">
-        <v>44897</v>
-      </c>
-      <c r="J12" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-    </row>
-    <row r="13" spans="1:26" ht="67.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61">
-        <v>2</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13" s="65">
-        <v>44897</v>
-      </c>
-      <c r="J13" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="67"/>
-      <c r="L13" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J12:J13 L12:L13">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J13 L12:L13">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="SKIPPED">
-      <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{9D214943-3674-42D4-AC96-51EEA43A5BF9}">
-          <x14:formula1>
-            <xm:f>'Test report '!$B$13:$B$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>J12:J13 L12:L13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C2BE9494-99BA-4674-86F7-F124D41E33B5}">
-          <x14:formula1>
-            <xm:f>'Test report '!$B$8:$B$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5314B4C-7DC2-48E4-BC91-8F9F3B6E04FC}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:Z12"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="18">
-        <f>COUNTIF($J$12:$J$473, "&lt;&gt;")</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="18">
-        <f>COUNTIF($J$12:$J$472, "PASS")</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
-        <f>COUNTIF($J$12:$J$475,"FAIL")</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <f>COUNTIF($J$12:$J$475,"NOT IMPLEMENTED")</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="18">
-        <f>COUNTIF($J$12:$J$475,"SKIPPED")</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="18">
-        <f>COUNTIF($L$12:$L$473, "&lt;&gt;")</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="18">
-        <f>COUNTIF($L$12:$L$473, "PASS")</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="18">
-        <f>COUNTIF($L$12:$L$473, "FAIL")</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <f>COUNTIF($L$12:$L$473,"NOT IMPLEMENTED")</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
-        <f>COUNTIF($L$12:$L$473, "SKIPPED")</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="1:26" ht="90" x14ac:dyDescent="0.2">
-      <c r="A12" s="69">
-        <v>1</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" s="73">
-        <v>44897</v>
-      </c>
-      <c r="J12" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="SKIPPED">
-      <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",L12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="SKIPPED">
-      <formula>NOT(ISERROR(SEARCH("SKIPPED",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",L12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CBC45706-B81C-4D73-9882-AA5F00EDB17B}">
-          <x14:formula1>
-            <xm:f>'Test report '!$B$8:$B$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:D4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{473D980F-9977-4B72-B549-8879BF539802}">
-          <x14:formula1>
-            <xm:f>'Test report '!$B$13:$B$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>J12 L12</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Test Case Template.xlsx
+++ b/Test Case Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiminhtamnguyen/Documents/GitHub/bai-tap-nhom-kho-chiu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F859C70-4C57-8540-AA1E-E15685A5AAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8428B-0B16-4B4E-A16C-D1B1838E99C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19060" windowHeight="18000" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test report " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="160">
   <si>
     <t>Test report</t>
   </si>
@@ -342,9 +342,6 @@
     <t>VM - X</t>
   </si>
   <si>
-    <t>VM</t>
-  </si>
-  <si>
     <t>Assign to</t>
   </si>
   <si>
@@ -527,15 +524,120 @@
   <si>
     <t>The true User Interface</t>
   </si>
+  <si>
+    <t>Choose payment method</t>
+  </si>
+  <si>
+    <t>CPM</t>
+  </si>
+  <si>
+    <t>Tran Phuoc Nhan</t>
+  </si>
+  <si>
+    <t>CPM-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Logged </t>
+  </si>
+  <si>
+    <t>1. Go to the paiment page
+1. Click pay</t>
+  </si>
+  <si>
+    <t>CPM-2</t>
+  </si>
+  <si>
+    <t>Check the display screem</t>
+  </si>
+  <si>
+    <t>Display 2 Payment method (Cash, E-Wallet) in full screen</t>
+  </si>
+  <si>
+    <t>CPM-3</t>
+  </si>
+  <si>
+    <t>Check payment method by E-Wallet</t>
+  </si>
+  <si>
+    <t>1. At the payment page
+2. Press on "E-Wallet" and Click Payment</t>
+  </si>
+  <si>
+    <t>Display the "Successful Payment comfirmation"</t>
+  </si>
+  <si>
+    <t>CPM-4</t>
+  </si>
+  <si>
+    <t>Check payment method by Cash</t>
+  </si>
+  <si>
+    <t>1.At the payment page
+2. Press on"cash            " and Click Payment</t>
+  </si>
+  <si>
+    <t>CPM-5</t>
+  </si>
+  <si>
+    <t>Do not enter value</t>
+  </si>
+  <si>
+    <t>1.At the payment page
+2. Don't enter any value and click Payment</t>
+  </si>
+  <si>
+    <t>Display request to enter 1 of 2 payment method</t>
+  </si>
+  <si>
+    <t>CPM-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check payment method </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.At the payment page
+2. Enter promotional code 3. Click Payment      </t>
+  </si>
+  <si>
+    <t>Ma khuyen mai:  "kfcxinchao2010"</t>
+  </si>
+  <si>
+    <t>CPM-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.At the payment page
+2. Enter wrong promotional code 3. Click Payment      </t>
+  </si>
+  <si>
+    <t>Ma khuyen mai:  "kfc xin chao 2010!"</t>
+  </si>
+  <si>
+    <t>Show notices the promotion must not contain special characters such as : !,@,#,$,%,...</t>
+  </si>
+  <si>
+    <t>CPM-8</t>
+  </si>
+  <si>
+    <t>Ma khuyen mai:  "kfc xin chao"</t>
+  </si>
+  <si>
+    <t>Show code message must have at least 1 uppercase character, number and special character</t>
+  </si>
+  <si>
+    <t>CPM-9</t>
+  </si>
+  <si>
+    <t>Display request to enter promotional</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,8 +745,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,8 +801,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -845,13 +959,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -945,87 +1075,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1045,11 +1096,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1057,11 +1105,153 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{9E6B5C91-FD65-4A33-9A45-71D1D891ADF4}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{4AAF1A3C-C55A-4C29-BD25-AA6EBD5F9046}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{9EFDD0F0-4B7C-A640-987F-BBD5F1FC3045}"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
@@ -1751,14 +1941,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1960,7 +2150,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="51" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -1991,7 +2181,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="22" t="s">
         <v>39</v>
       </c>
@@ -2020,7 +2210,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="22" t="s">
         <v>40</v>
       </c>
@@ -2049,7 +2239,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="22" t="s">
         <v>41</v>
       </c>
@@ -2105,7 +2295,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -2136,7 +2326,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
@@ -2165,7 +2355,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="13" t="s">
         <v>9</v>
       </c>
@@ -2194,7 +2384,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="13" t="s">
         <v>10</v>
       </c>
@@ -30243,14 +30433,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="59"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
@@ -30261,14 +30451,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="53"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="66"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -30279,12 +30469,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -30295,14 +30485,14 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="49"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="59"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="H4" s="30"/>
@@ -30312,10 +30502,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -30337,8 +30527,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="18">
         <f>COUNTIF($J$12:$J$475, "&lt;&gt;")</f>
         <v>12</v>
@@ -30365,10 +30555,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -30390,8 +30580,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="18">
         <f>COUNTIF($L$12:$L$475, "&lt;&gt;")</f>
         <v>12</v>
@@ -30432,532 +30622,546 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="66" t="s">
+      <c r="L10" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="66" t="s">
-        <v>72</v>
+      <c r="M10" s="54" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.15">
       <c r="A12" s="31">
         <v>1</v>
       </c>
-      <c r="B12" s="65" t="str">
+      <c r="B12" s="37" t="str">
         <f t="shared" ref="B12:B23" si="0">CONCATENATE($C$2, " - ", A12)</f>
         <v>VMaI - 1</v>
       </c>
-      <c r="C12" s="65" t="str">
+      <c r="C12" s="37" t="str">
         <f>$C$1</f>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65" t="s">
-        <v>77</v>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="G12" s="31"/>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="69" t="s">
+      <c r="I12" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="69" t="s">
+      <c r="K12" s="39"/>
+      <c r="L12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="74" t="s">
-        <v>76</v>
+      <c r="M12" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="59" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31">
         <v>2</v>
       </c>
-      <c r="B13" s="65" t="str">
+      <c r="B13" s="37" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 2</v>
       </c>
-      <c r="C13" s="65" t="str">
+      <c r="C13" s="37" t="str">
         <f>$C$1</f>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="65" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="65" t="s">
+      <c r="I13" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="69" t="s">
+      <c r="K13" s="39"/>
+      <c r="L13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="74" t="s">
-        <v>76</v>
+      <c r="M13" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="88.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31">
         <v>3</v>
       </c>
-      <c r="B14" s="65" t="str">
+      <c r="B14" s="37" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 3</v>
       </c>
-      <c r="C14" s="65" t="str">
+      <c r="C14" s="37" t="str">
         <f t="shared" ref="C14:C23" si="1">$C$1</f>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D14" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="65" t="s">
+      <c r="D14" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="65" t="s">
-        <v>82</v>
+      <c r="E14" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="G14" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="69" t="s">
+      <c r="I14" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="69" t="s">
+      <c r="K14" s="39"/>
+      <c r="L14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="74" t="s">
-        <v>76</v>
+      <c r="M14" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="31">
         <v>4</v>
       </c>
-      <c r="B15" s="65" t="str">
+      <c r="B15" s="37" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 4</v>
       </c>
-      <c r="C15" s="65" t="str">
+      <c r="C15" s="37" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D15" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>83</v>
+      <c r="D15" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>82</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="69" t="s">
+      <c r="K15" s="39"/>
+      <c r="L15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="74" t="s">
-        <v>76</v>
+      <c r="M15" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A16" s="31">
         <v>5</v>
       </c>
-      <c r="B16" s="65" t="str">
+      <c r="B16" s="37" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 5</v>
       </c>
-      <c r="C16" s="65" t="str">
+      <c r="C16" s="37" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="65" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="69" t="s">
+      <c r="I16" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="69" t="s">
+      <c r="K16" s="39"/>
+      <c r="L16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="74" t="s">
-        <v>76</v>
+      <c r="M16" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.15">
       <c r="A17" s="31">
         <v>6</v>
       </c>
-      <c r="B17" s="65" t="str">
+      <c r="B17" s="37" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 6</v>
       </c>
-      <c r="C17" s="65" t="str">
+      <c r="C17" s="37" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="65" t="s">
+      <c r="G17" s="41"/>
+      <c r="H17" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" s="69" t="s">
+      <c r="I17" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="69" t="s">
+      <c r="K17" s="39"/>
+      <c r="L17" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="74" t="s">
-        <v>76</v>
+      <c r="M17" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.15">
       <c r="A18" s="31">
         <v>7</v>
       </c>
-      <c r="B18" s="65" t="str">
+      <c r="B18" s="37" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 7</v>
       </c>
-      <c r="C18" s="65" t="str">
+      <c r="C18" s="37" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D18" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="65" t="s">
+      <c r="D18" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="G18" s="41"/>
+      <c r="H18" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="69" t="s">
+      <c r="I18" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="70"/>
-      <c r="L18" s="69" t="s">
+      <c r="K18" s="39"/>
+      <c r="L18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="74" t="s">
-        <v>76</v>
+      <c r="M18" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.15">
       <c r="A19" s="31">
         <v>8</v>
       </c>
-      <c r="B19" s="65" t="str">
+      <c r="B19" s="37" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 8</v>
       </c>
-      <c r="C19" s="65" t="str">
+      <c r="C19" s="37" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="65" t="s">
+      <c r="G19" s="41"/>
+      <c r="H19" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="69" t="s">
+      <c r="I19" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="70"/>
-      <c r="L19" s="69" t="s">
+      <c r="K19" s="39"/>
+      <c r="L19" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="74" t="s">
-        <v>76</v>
+      <c r="M19" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.15">
       <c r="A20" s="31">
         <v>9</v>
       </c>
-      <c r="B20" s="65" t="str">
+      <c r="B20" s="37" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 9</v>
       </c>
-      <c r="C20" s="65" t="str">
+      <c r="C20" s="37" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="69" t="s">
+      <c r="I20" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="69" t="s">
+      <c r="K20" s="39"/>
+      <c r="L20" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="74" t="s">
-        <v>76</v>
+      <c r="M20" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.15">
       <c r="A21" s="31">
         <v>10</v>
       </c>
-      <c r="B21" s="65" t="str">
+      <c r="B21" s="37" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 10</v>
       </c>
-      <c r="C21" s="65" t="str">
+      <c r="C21" s="37" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D21" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="65" t="s">
+      <c r="D21" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="69" t="s">
+      <c r="I21" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="69" t="s">
+      <c r="K21" s="39"/>
+      <c r="L21" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="74" t="s">
-        <v>76</v>
+      <c r="M21" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="90" x14ac:dyDescent="0.15">
       <c r="A22" s="31">
         <v>11</v>
       </c>
-      <c r="B22" s="65" t="str">
+      <c r="B22" s="37" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 11</v>
       </c>
-      <c r="C22" s="65" t="str">
+      <c r="C22" s="37" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="65" t="s">
+      <c r="G22" s="42"/>
+      <c r="H22" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="69" t="s">
+      <c r="I22" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="70"/>
-      <c r="L22" s="69" t="s">
+      <c r="K22" s="39"/>
+      <c r="L22" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="74" t="s">
-        <v>76</v>
+      <c r="M22" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.15">
       <c r="A23" s="31">
         <v>12</v>
       </c>
-      <c r="B23" s="65" t="str">
+      <c r="B23" s="37" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 12</v>
       </c>
-      <c r="C23" s="65" t="str">
+      <c r="C23" s="37" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="65" t="s">
+      <c r="G23" s="42"/>
+      <c r="H23" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="69" t="s">
+      <c r="I23" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="70"/>
-      <c r="L23" s="69" t="s">
+      <c r="K23" s="39"/>
+      <c r="L23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="74" t="s">
-        <v>76</v>
+      <c r="M23" s="43" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
@@ -30967,20 +31171,6 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="J12:J23">
@@ -31037,7 +31227,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
@@ -31058,14 +31248,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="59"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
@@ -31076,14 +31266,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="53"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="66"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -31094,12 +31284,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -31110,14 +31300,14 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="49"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="59"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="H4" s="30"/>
@@ -31127,10 +31317,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -31152,8 +31342,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="18">
         <f>COUNTIF($J$12:$J$489, "&lt;&gt;")</f>
         <v>3</v>
@@ -31180,10 +31370,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -31205,8 +31395,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="18">
         <f>COUNTIF($L$12:$L$489, "&lt;&gt;")</f>
         <v>3</v>
@@ -31247,60 +31437,60 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="58" t="s">
+      <c r="L10" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="58" t="s">
-        <v>72</v>
+      <c r="M10" s="67" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
     </row>
     <row r="12" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
@@ -31314,18 +31504,18 @@
         <f t="shared" ref="C12:C14" si="1">$C$1</f>
         <v xml:space="preserve">Announcements &amp; news </v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="37" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I12" s="34">
         <v>44897</v>
@@ -31333,12 +31523,12 @@
       <c r="J12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="77"/>
+      <c r="K12" s="45"/>
       <c r="L12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="78" t="s">
-        <v>76</v>
+      <c r="M12" s="46" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -31353,18 +31543,18 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Announcements &amp; news </v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" s="34">
         <v>44898</v>
@@ -31372,12 +31562,12 @@
       <c r="J13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="77"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="78" t="s">
-        <v>76</v>
+      <c r="M13" s="46" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -31392,18 +31582,18 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Announcements &amp; news </v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="37"/>
+      <c r="H14" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="I14" s="34">
         <v>44899</v>
@@ -31411,16 +31601,23 @@
       <c r="J14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="77"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="78" t="s">
-        <v>76</v>
+      <c r="M14" s="46" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -31437,13 +31634,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J14">
     <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="FAIL">
@@ -31520,14 +31710,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -31538,14 +31728,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -31556,12 +31746,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -31572,14 +31762,14 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="H4" s="7"/>
@@ -31589,10 +31779,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -31614,8 +31804,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="8">
         <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
         <v>6</v>
@@ -31642,10 +31832,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -31667,8 +31857,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="8">
         <f>COUNTIF($L$12:$L$480, "&lt;&gt;")</f>
         <v>6</v>
@@ -31709,60 +31899,60 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="56" t="s">
-        <v>72</v>
+      <c r="M10" s="69" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
@@ -31783,7 +31973,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="4" t="s">
@@ -31816,17 +32006,17 @@
         <v>Food Registration Feature</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="35">
         <v>44897</v>
@@ -32006,6 +32196,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -32022,13 +32219,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J17 L12:L17">
     <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="FAIL">
@@ -32136,10 +32326,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8AD977-4220-419A-B95A-985421C2CCEC}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -32161,308 +32351,612 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="81"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="85">
+        <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="85">
+        <f>COUNTIF($J$12:$J$473, "PASS")</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="85">
+        <f>COUNTIF($J$12:$J$476,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="85">
+        <f>COUNTIF($J$12:$J$476,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="85">
+        <f>COUNTIF($J$12:$J$476,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="85">
+        <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
+        <v>9</v>
+      </c>
+      <c r="D8" s="85">
+        <f>COUNTIF($J$12:$J$473, "PASS")</f>
+        <v>9</v>
+      </c>
+      <c r="E8" s="85">
+        <f>COUNTIF($J$12:$J$476,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="85">
+        <f>COUNTIF($J$12:$J$476,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="85">
+        <f>COUNTIF($J$12:$J$476,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+    </row>
+    <row r="12" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="89">
+        <v>1</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="92"/>
+      <c r="H12" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="93">
+        <v>45283</v>
+      </c>
+      <c r="J12" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="89">
+        <v>2</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="98"/>
+      <c r="H13" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="93">
+        <v>45283</v>
+      </c>
+      <c r="J13" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A14" s="89">
+        <v>3</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="99"/>
+      <c r="H14" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="93">
+        <v>45283</v>
+      </c>
+      <c r="J14" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="95"/>
+      <c r="L14" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A15" s="89">
+        <v>4</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="99"/>
+      <c r="H15" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="93">
+        <v>45283</v>
+      </c>
+      <c r="J15" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" s="89">
         <v>5</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B16" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="99"/>
+      <c r="H16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="93">
+        <v>45283</v>
+      </c>
+      <c r="J16" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="K16" s="95"/>
+      <c r="L16" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A17" s="89">
+        <v>6</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="93">
+        <v>45283</v>
+      </c>
+      <c r="J17" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="95"/>
+      <c r="L17" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="108" x14ac:dyDescent="0.2">
+      <c r="A18" s="89">
+        <v>7</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="93">
+        <v>45283</v>
+      </c>
+      <c r="J18" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="95"/>
+      <c r="L18" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+      <c r="A19" s="89">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="B19" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="93">
+        <v>45283</v>
+      </c>
+      <c r="J19" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" s="89">
         <v>9</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="18">
-        <f>COUNTIF($J$12:$J$475, "&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="18">
-        <f>COUNTIF($J$12:$J$474, "PASS")</f>
-        <v>2</v>
-      </c>
-      <c r="E6" s="18">
-        <f>COUNTIF($J$12:$J$477,"FAIL")</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <f>COUNTIF($J$12:$J$477,"NOT IMPLEMENTED")</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <f>COUNTIF($J$12:$J$477,"SKIPPED")</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B20" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="93">
+        <v>45283</v>
+      </c>
+      <c r="J20" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="18">
-        <f>COUNTIF($L$12:$L$475, "&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="D8" s="18">
-        <f>COUNTIF($L$12:$L$475, "PASS")</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="18">
-        <f>COUNTIF($L$12:$L$475, "FAIL")</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <f>COUNTIF($L$12:$L$475,"NOT IMPLEMENTED")</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <f>COUNTIF($L$12:$L$475, "SKIPPED")</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-    </row>
-    <row r="12" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="str">
-        <f t="shared" ref="B12:B13" si="0">CONCATENATE($C$2, " - ", A12)</f>
-        <v>VM - 1</v>
-      </c>
-      <c r="C12" s="25" t="str">
-        <f>$C$1</f>
-        <v>View Menu Feature</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="37">
-        <v>44897</v>
-      </c>
-      <c r="J12" s="24" t="s">
+      <c r="K20" s="95"/>
+      <c r="L20" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>VM - 2</v>
-      </c>
-      <c r="C13" s="25" t="str">
-        <f>$C$1</f>
-        <v>View Menu Feature</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="37">
-        <v>44897</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>40</v>
+      <c r="M20" s="97" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -32479,13 +32973,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J13 L12:L13">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAIL">

--- a/Test Case Template.xlsx
+++ b/Test Case Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiminhtamnguyen/Documents/GitHub/bai-tap-nhom-kho-chiu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8428B-0B16-4B4E-A16C-D1B1838E99C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4CC489-8231-714D-A6BE-F0DF58C0AE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test report " sheetId="1" r:id="rId1"/>
@@ -752,7 +752,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,6 +804,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
@@ -981,7 +987,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1105,114 +1111,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,6 +1153,110 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1941,14 +1953,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2150,7 +2162,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -2181,7 +2193,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="22" t="s">
         <v>39</v>
       </c>
@@ -2210,7 +2222,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="22" t="s">
         <v>40</v>
       </c>
@@ -2239,7 +2251,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="22" t="s">
         <v>41</v>
       </c>
@@ -2295,7 +2307,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="62" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -2326,7 +2338,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
@@ -2355,7 +2367,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="13" t="s">
         <v>9</v>
       </c>
@@ -2384,7 +2396,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="13" t="s">
         <v>10</v>
       </c>
@@ -30433,14 +30445,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="59"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
@@ -30451,14 +30463,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -30469,12 +30481,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -30485,14 +30497,14 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="H4" s="30"/>
@@ -30502,10 +30514,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -30527,8 +30539,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="18">
         <f>COUNTIF($J$12:$J$475, "&lt;&gt;")</f>
         <v>12</v>
@@ -30555,10 +30567,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -30580,8 +30592,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="18">
         <f>COUNTIF($L$12:$L$475, "&lt;&gt;")</f>
         <v>12</v>
@@ -30622,60 +30634,60 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="L10" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="79" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
     </row>
     <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.15">
       <c r="A12" s="31">
@@ -31148,20 +31160,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
@@ -31171,6 +31169,20 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="J12:J23">
@@ -31248,14 +31260,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="59"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
@@ -31266,14 +31278,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -31284,12 +31296,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -31300,14 +31312,14 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="H4" s="30"/>
@@ -31317,10 +31329,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -31342,8 +31354,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="18">
         <f>COUNTIF($J$12:$J$489, "&lt;&gt;")</f>
         <v>3</v>
@@ -31370,10 +31382,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -31395,8 +31407,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="18">
         <f>COUNTIF($L$12:$L$489, "&lt;&gt;")</f>
         <v>3</v>
@@ -31437,60 +31449,60 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="67" t="s">
+      <c r="K10" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="82" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
     </row>
     <row r="12" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
@@ -31611,13 +31623,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -31634,6 +31639,13 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J14">
     <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="FAIL">
@@ -31710,14 +31722,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="59"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -31728,14 +31740,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -31746,12 +31758,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -31762,14 +31774,14 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="H4" s="7"/>
@@ -31779,10 +31791,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -31804,8 +31816,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="8">
         <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
         <v>6</v>
@@ -31832,10 +31844,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -31857,8 +31869,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="8">
         <f>COUNTIF($L$12:$L$480, "&lt;&gt;")</f>
         <v>6</v>
@@ -31899,60 +31911,60 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="69" t="s">
+      <c r="J10" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="69" t="s">
+      <c r="M10" s="84" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
     </row>
     <row r="12" spans="1:13" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
@@ -32196,13 +32208,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -32219,6 +32224,13 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J17 L12:L17">
     <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="FAIL">
@@ -32328,8 +32340,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -32351,17 +32363,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -32370,17 +32382,17 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -32389,15 +32401,15 @@
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -32406,17 +32418,17 @@
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="81"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -32425,23 +32437,23 @@
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="H5"/>
@@ -32452,25 +32464,25 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="85">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="50">
         <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
         <v>9</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="50">
         <f>COUNTIF($J$12:$J$473, "PASS")</f>
         <v>9</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="50">
         <f>COUNTIF($J$12:$J$476,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="50">
         <f>COUNTIF($J$12:$J$476,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="50">
         <f>COUNTIF($J$12:$J$476,"SKIPPED")</f>
         <v>0</v>
       </c>
@@ -32482,23 +32494,23 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="84" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="49" t="s">
         <v>9</v>
       </c>
       <c r="H7"/>
@@ -32509,25 +32521,25 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="85">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="50">
         <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
         <v>9</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="50">
         <f>COUNTIF($J$12:$J$473, "PASS")</f>
         <v>9</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="50">
         <f>COUNTIF($J$12:$J$476,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="50">
         <f>COUNTIF($J$12:$J$476,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="50">
         <f>COUNTIF($J$12:$J$476,"SKIPPED")</f>
         <v>0</v>
       </c>
@@ -32554,43 +32566,43 @@
       <c r="M9"/>
     </row>
     <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="86" t="s">
+      <c r="M10" s="87" t="s">
         <v>71</v>
       </c>
     </row>
@@ -32603,360 +32615,353 @@
       <c r="F11" s="88"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="89">
+      <c r="A12" s="51">
         <v>1</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="91" t="s">
+      <c r="G12" s="54"/>
+      <c r="H12" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="93">
+      <c r="I12" s="55">
         <v>45283</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="95"/>
-      <c r="L12" s="96" t="s">
+      <c r="K12" s="57"/>
+      <c r="L12" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="97" t="s">
+      <c r="M12" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="89">
+      <c r="A13" s="51">
         <v>2</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="91" t="s">
+      <c r="G13" s="60"/>
+      <c r="H13" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="55">
         <v>45283</v>
       </c>
-      <c r="J13" s="94" t="s">
+      <c r="J13" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96" t="s">
+      <c r="K13" s="57"/>
+      <c r="L13" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="97" t="s">
+      <c r="M13" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A14" s="89">
+      <c r="A14" s="51">
         <v>3</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="91" t="s">
+      <c r="G14" s="61"/>
+      <c r="H14" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="93">
+      <c r="I14" s="55">
         <v>45283</v>
       </c>
-      <c r="J14" s="94" t="s">
+      <c r="J14" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="96" t="s">
+      <c r="K14" s="57"/>
+      <c r="L14" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="97" t="s">
+      <c r="M14" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="89">
+      <c r="A15" s="51">
         <v>4</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="91" t="s">
+      <c r="G15" s="61"/>
+      <c r="H15" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="93">
+      <c r="I15" s="55">
         <v>45283</v>
       </c>
-      <c r="J15" s="94" t="s">
+      <c r="J15" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96" t="s">
+      <c r="K15" s="57"/>
+      <c r="L15" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="97" t="s">
+      <c r="M15" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="89">
+      <c r="A16" s="51">
         <v>5</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="99"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I16" s="55">
         <v>45283</v>
       </c>
-      <c r="J16" s="94" t="s">
+      <c r="J16" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="96" t="s">
+      <c r="K16" s="57"/>
+      <c r="L16" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="97" t="s">
+      <c r="M16" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A17" s="89">
+      <c r="A17" s="51">
         <v>6</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="91" t="s">
+      <c r="F17" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="99" t="s">
+      <c r="G17" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="91" t="s">
+      <c r="H17" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="I17" s="93">
+      <c r="I17" s="55">
         <v>45283</v>
       </c>
-      <c r="J17" s="94" t="s">
+      <c r="J17" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="95"/>
-      <c r="L17" s="96" t="s">
+      <c r="K17" s="57"/>
+      <c r="L17" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="97" t="s">
+      <c r="M17" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="108" x14ac:dyDescent="0.2">
-      <c r="A18" s="89">
+      <c r="A18" s="51">
         <v>7</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="91" t="s">
+      <c r="F18" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="99" t="s">
+      <c r="G18" s="61" t="s">
         <v>153</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="93">
+      <c r="I18" s="55">
         <v>45283</v>
       </c>
-      <c r="J18" s="94" t="s">
+      <c r="J18" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="96" t="s">
+      <c r="K18" s="57"/>
+      <c r="L18" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="97" t="s">
+      <c r="M18" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="126" x14ac:dyDescent="0.2">
-      <c r="A19" s="89">
+      <c r="A19" s="51">
         <v>8</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="90" t="s">
+      <c r="E19" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="99" t="s">
+      <c r="G19" s="61" t="s">
         <v>156</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I19" s="93">
+      <c r="I19" s="55">
         <v>45283</v>
       </c>
-      <c r="J19" s="94" t="s">
+      <c r="J19" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96" t="s">
+      <c r="K19" s="57"/>
+      <c r="L19" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="97" t="s">
+      <c r="M19" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="89">
+      <c r="A20" s="51">
         <v>9</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="90" t="s">
+      <c r="E20" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="91" t="s">
+      <c r="F20" s="53" t="s">
         <v>145</v>
       </c>
       <c r="G20"/>
-      <c r="H20" s="91" t="s">
+      <c r="H20" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="I20" s="93">
+      <c r="I20" s="55">
         <v>45283</v>
       </c>
-      <c r="J20" s="94" t="s">
+      <c r="J20" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="95"/>
-      <c r="L20" s="96" t="s">
+      <c r="K20" s="57"/>
+      <c r="L20" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="97" t="s">
+      <c r="M20" s="59" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -32973,6 +32978,13 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J13 L12:L13">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAIL">

--- a/Test Case Template.xlsx
+++ b/Test Case Template.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiminhtamnguyen/Documents/GitHub/bai-tap-nhom-kho-chiu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4CC489-8231-714D-A6BE-F0DF58C0AE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5EA0A8-989B-2A42-A338-FEFD7480FF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test report " sheetId="1" r:id="rId1"/>
     <sheet name="View Menu and Invoice" sheetId="11" r:id="rId2"/>
     <sheet name="Announcements &amp; news " sheetId="21" r:id="rId3"/>
-    <sheet name="Food Registration Feature" sheetId="20" r:id="rId4"/>
-    <sheet name="View Menu Feature" sheetId="24" r:id="rId5"/>
+    <sheet name="View Menu Feature" sheetId="24" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="141">
   <si>
     <t>Test report</t>
   </si>
@@ -161,18 +160,6 @@
     <t>Food Management System</t>
   </si>
   <si>
-    <t>Tran Van Nhan</t>
-  </si>
-  <si>
-    <t>Phan Anh Tuan</t>
-  </si>
-  <si>
-    <t>Huynh Duc Huy</t>
-  </si>
-  <si>
-    <t>Chau Ngoc Huy</t>
-  </si>
-  <si>
     <t>Check User Interface</t>
   </si>
   <si>
@@ -206,131 +193,10 @@
     <t>LfS - X</t>
   </si>
   <si>
-    <t>1. Logged</t>
-  </si>
-  <si>
     <t>Personal Profile Feature</t>
   </si>
   <si>
     <t>PP - X</t>
-  </si>
-  <si>
-    <t>Check Order Function</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Order page
-2. Press on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Order"</t>
-    </r>
-  </si>
-  <si>
-    <t>Go to the Food Order page</t>
-  </si>
-  <si>
-    <t>Food Name="Cơm Sườn Trứng"
-Order for shift="Shift 1"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Display the message </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Successful food order"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Food Order page
-2. Fill Food Name, Choose Order for shift
-3. Press on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Order"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Food Order page
-2. Choose Order for shift
-3. Press on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Order"</t>
-    </r>
-  </si>
-  <si>
-    <t>Order for shift="Shift 1"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show alert </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"The Food Name field is mandatory"</t>
-    </r>
-  </si>
-  <si>
-    <t>Food Name="Cơm Sườn Trứng"
-Description="Cơm + sườn + bì + trứng"
-Order for shift="Shift 1"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. At the Food Order page
-2. Fill Food Name, Description, Choose Order for shift
-3. Press on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Order"</t>
-    </r>
-  </si>
-  <si>
-    <t>FR</t>
   </si>
   <si>
     <t>Sprint 4</t>
@@ -343,28 +209,6 @@
   </si>
   <si>
     <t>Assign to</t>
-  </si>
-  <si>
-    <t>Check The Display Screen</t>
-  </si>
-  <si>
-    <t>Display the menu of food in the form of a table</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Go to the Staff Homepage
-1. Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Order</t>
-    </r>
   </si>
   <si>
     <t>Dang Nguyen Nhat Quang</t>
@@ -629,6 +473,9 @@
   <si>
     <t>Display request to enter promotional</t>
   </si>
+  <si>
+    <t>Chan Phuoc Nhan</t>
+  </si>
 </sst>
 </file>
 
@@ -637,7 +484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,11 +527,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
@@ -814,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -872,19 +714,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -983,11 +812,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -999,19 +828,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,30 +836,21 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1054,32 +862,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1096,25 +892,25 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1133,7 +929,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,10 +938,10 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,6 +949,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1162,101 +964,85 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1265,232 +1051,7 @@
     <cellStyle name="Normal 3" xfId="2" xr:uid="{4AAF1A3C-C55A-4C29-BD25-AA6EBD5F9046}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{9EFDD0F0-4B7C-A640-987F-BBD5F1FC3045}"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9A317"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE05720"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9A317"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE05720"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9A317"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE05720"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9A317"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE05720"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9A317"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE05720"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -1939,8 +1500,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1953,14 +1514,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2011,13 +1572,13 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="6"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2042,17 +1603,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>68</v>
+      <c r="B4" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="14"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2074,15 +1635,15 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="14"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2104,16 +1665,16 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2136,11 +1697,11 @@
     </row>
     <row r="7" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="11"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2162,16 +1723,16 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>38</v>
+      <c r="B8" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2193,14 +1754,14 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="22" t="s">
-        <v>39</v>
+      <c r="A9" s="53"/>
+      <c r="B9" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2221,15 +1782,13 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="22" t="s">
-        <v>40</v>
-      </c>
+    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2250,15 +1809,13 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="22" t="s">
-        <v>41</v>
-      </c>
+    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="14"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2280,12 +1837,12 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2307,16 +1864,16 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2338,14 +1895,14 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2367,14 +1924,14 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2396,14 +1953,14 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2430,7 +1987,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2479,19 +2036,19 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="2"/>
@@ -2516,19 +2073,19 @@
       <c r="Y19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>1</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="33">
+      <c r="B20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="24">
         <v>44884</v>
       </c>
       <c r="F20" s="1"/>
@@ -2553,19 +2110,19 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>2</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="33">
+      <c r="C21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="24">
         <v>44884</v>
       </c>
       <c r="F21" s="1"/>
@@ -2590,19 +2147,19 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>3</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="33">
+      <c r="B22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="24">
         <v>44884</v>
       </c>
       <c r="F22" s="1"/>
@@ -2627,19 +2184,19 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="A23" s="14">
         <v>4</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="33">
+      <c r="B23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="24">
         <v>44884</v>
       </c>
       <c r="F23" s="1"/>
@@ -2664,19 +2221,19 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="A24" s="14">
         <v>5</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="33">
+      <c r="B24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="24">
         <v>44884</v>
       </c>
       <c r="F24" s="1"/>
@@ -2701,19 +2258,19 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32">
+      <c r="A25" s="23">
         <v>6</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="33">
+      <c r="B25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="24">
         <v>44884</v>
       </c>
       <c r="F25" s="1"/>
@@ -2738,19 +2295,19 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
+      <c r="A26" s="14">
         <v>7</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="33">
+      <c r="B26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="24">
         <v>44884</v>
       </c>
       <c r="F26" s="1"/>
@@ -2776,9 +2333,9 @@
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2803,7 +2360,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1"/>
@@ -30412,7 +29969,7 @@
   <mergeCells count="3">
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30445,79 +30002,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="78"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -30533,44 +30090,44 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="18">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="14">
         <f>COUNTIF($J$12:$J$475, "&lt;&gt;")</f>
         <v>12</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <f>COUNTIF($J$12:$J$474, "PASS")</f>
         <v>12</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <f>COUNTIF($J$12:$J$477,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="14">
         <f>COUNTIF($J$12:$J$477,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="14">
         <f>COUNTIF($J$12:$J$477,"SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -30586,37 +30143,37 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="18">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="14">
         <f>COUNTIF($L$12:$L$475, "&lt;&gt;")</f>
         <v>12</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <f>COUNTIF($L$12:$L$475, "PASS")</f>
         <v>12</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="14">
         <f>COUNTIF($L$12:$L$475, "FAIL")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="14">
         <f>COUNTIF($L$12:$L$475,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="14">
         <f>COUNTIF($L$12:$L$475, "SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -30634,532 +30191,546 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="J10" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="79" t="s">
-        <v>71</v>
+      <c r="M10" s="57" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.15">
-      <c r="A12" s="31">
+      <c r="A12" s="22">
         <v>1</v>
       </c>
-      <c r="B12" s="37" t="str">
+      <c r="B12" s="26" t="str">
         <f t="shared" ref="B12:B23" si="0">CONCATENATE($C$2, " - ", A12)</f>
         <v>VMaI - 1</v>
       </c>
-      <c r="C12" s="37" t="str">
+      <c r="C12" s="26" t="str">
         <f>$C$1</f>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="38" t="s">
+      <c r="D12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="38" t="s">
+      <c r="K12" s="28"/>
+      <c r="L12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="43" t="s">
-        <v>75</v>
+      <c r="M12" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="59" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31">
+      <c r="A13" s="22">
         <v>2</v>
       </c>
-      <c r="B13" s="37" t="str">
+      <c r="B13" s="26" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 2</v>
       </c>
-      <c r="C13" s="37" t="str">
+      <c r="C13" s="26" t="str">
         <f>$C$1</f>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="38" t="s">
+      <c r="D13" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="38" t="s">
+      <c r="K13" s="28"/>
+      <c r="L13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="43" t="s">
-        <v>75</v>
+      <c r="M13" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="88.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="31">
+      <c r="A14" s="22">
         <v>3</v>
       </c>
-      <c r="B14" s="37" t="str">
+      <c r="B14" s="26" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 3</v>
       </c>
-      <c r="C14" s="37" t="str">
+      <c r="C14" s="26" t="str">
         <f t="shared" ref="C14:C23" si="1">$C$1</f>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="38" t="s">
+      <c r="D14" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="38" t="s">
+      <c r="K14" s="28"/>
+      <c r="L14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="43" t="s">
-        <v>75</v>
+      <c r="M14" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="31">
+      <c r="A15" s="22">
         <v>4</v>
       </c>
-      <c r="B15" s="37" t="str">
+      <c r="B15" s="26" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 4</v>
       </c>
-      <c r="C15" s="37" t="str">
+      <c r="C15" s="26" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="38" t="s">
+      <c r="D15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="38" t="s">
+      <c r="K15" s="28"/>
+      <c r="L15" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="43" t="s">
-        <v>75</v>
+      <c r="M15" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="31">
+      <c r="A16" s="22">
         <v>5</v>
       </c>
-      <c r="B16" s="37" t="str">
+      <c r="B16" s="26" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 5</v>
       </c>
-      <c r="C16" s="37" t="str">
+      <c r="C16" s="26" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="38" t="s">
+      <c r="D16" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="38" t="s">
+      <c r="K16" s="28"/>
+      <c r="L16" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="43" t="s">
-        <v>75</v>
+      <c r="M16" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A17" s="31">
+      <c r="A17" s="22">
         <v>6</v>
       </c>
-      <c r="B17" s="37" t="str">
+      <c r="B17" s="26" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 6</v>
       </c>
-      <c r="C17" s="37" t="str">
+      <c r="C17" s="26" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="38" t="s">
+      <c r="D17" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="38" t="s">
+      <c r="K17" s="28"/>
+      <c r="L17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="43" t="s">
-        <v>75</v>
+      <c r="M17" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A18" s="31">
+      <c r="A18" s="22">
         <v>7</v>
       </c>
-      <c r="B18" s="37" t="str">
+      <c r="B18" s="26" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 7</v>
       </c>
-      <c r="C18" s="37" t="str">
+      <c r="C18" s="26" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="38" t="s">
+      <c r="D18" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="38" t="s">
+      <c r="K18" s="28"/>
+      <c r="L18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="43" t="s">
-        <v>75</v>
+      <c r="M18" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A19" s="31">
+      <c r="A19" s="22">
         <v>8</v>
       </c>
-      <c r="B19" s="37" t="str">
+      <c r="B19" s="26" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 8</v>
       </c>
-      <c r="C19" s="37" t="str">
+      <c r="C19" s="26" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="38" t="s">
+      <c r="D19" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="38" t="s">
+      <c r="K19" s="28"/>
+      <c r="L19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="43" t="s">
-        <v>75</v>
+      <c r="M19" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A20" s="31">
+      <c r="A20" s="22">
         <v>9</v>
       </c>
-      <c r="B20" s="37" t="str">
+      <c r="B20" s="26" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 9</v>
       </c>
-      <c r="C20" s="37" t="str">
+      <c r="C20" s="26" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="44" t="s">
+      <c r="D20" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="I20" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="38" t="s">
+      <c r="K20" s="28"/>
+      <c r="L20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="43" t="s">
-        <v>75</v>
+      <c r="M20" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A21" s="31">
+      <c r="A21" s="22">
         <v>10</v>
       </c>
-      <c r="B21" s="37" t="str">
+      <c r="B21" s="26" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 10</v>
       </c>
-      <c r="C21" s="37" t="str">
+      <c r="C21" s="26" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="38" t="s">
+      <c r="D21" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="38" t="s">
+      <c r="K21" s="28"/>
+      <c r="L21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="43" t="s">
-        <v>75</v>
+      <c r="M21" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A22" s="31">
+      <c r="A22" s="22">
         <v>11</v>
       </c>
-      <c r="B22" s="37" t="str">
+      <c r="B22" s="26" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 11</v>
       </c>
-      <c r="C22" s="37" t="str">
+      <c r="C22" s="26" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="38" t="s">
+      <c r="D22" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="38" t="s">
+      <c r="K22" s="28"/>
+      <c r="L22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="43" t="s">
-        <v>75</v>
+      <c r="M22" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A23" s="31">
+      <c r="A23" s="22">
         <v>12</v>
       </c>
-      <c r="B23" s="37" t="str">
+      <c r="B23" s="26" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 12</v>
       </c>
-      <c r="C23" s="37" t="str">
+      <c r="C23" s="26" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="38" t="s">
+      <c r="D23" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="38" t="s">
+      <c r="K23" s="28"/>
+      <c r="L23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="43" t="s">
-        <v>75</v>
+      <c r="M23" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
@@ -31169,51 +30740,37 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="J12:J23">
-    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J23">
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="SKIPPED">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L23">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L23">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="SKIPPED">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31260,79 +30817,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="78"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -31348,44 +30905,44 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="18">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="14">
         <f>COUNTIF($J$12:$J$489, "&lt;&gt;")</f>
         <v>3</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <f>COUNTIF($L$12:$L$488, "PASS")</f>
         <v>3</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <f>COUNTIF($J$12:$J$491,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="14">
         <f>COUNTIF($J$12:$J$491,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="14">
         <f>COUNTIF($J$12:$J$491,"SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -31401,37 +30958,37 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="18">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="14">
         <f>COUNTIF($L$12:$L$489, "&lt;&gt;")</f>
         <v>3</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <f>COUNTIF($L$12:$L$489, "PASS")</f>
         <v>3</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="14">
         <f>COUNTIF($L$12:$L$489, "FAIL")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="14">
         <f>COUNTIF($L$12:$L$489,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="14">
         <f>COUNTIF($L$12:$L$489, "SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -31449,180 +31006,187 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="82" t="s">
+      <c r="J10" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="82" t="s">
-        <v>71</v>
+      <c r="M10" s="70" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="25">
+      <c r="A12" s="18">
         <v>1</v>
       </c>
-      <c r="B12" s="25" t="str">
+      <c r="B12" s="18" t="str">
         <f t="shared" ref="B12" si="0">CONCATENATE($C$2, " - ", A12)</f>
         <v>A&amp;N - 1</v>
       </c>
-      <c r="C12" s="25" t="str">
+      <c r="C12" s="18" t="str">
         <f t="shared" ref="C12:C14" si="1">$C$1</f>
         <v xml:space="preserve">Announcements &amp; news </v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>118</v>
+      <c r="D12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="37"/>
+        <v>99</v>
+      </c>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" s="34">
+        <v>106</v>
+      </c>
+      <c r="I12" s="25">
         <v>44897</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="24" t="s">
+      <c r="K12" s="34"/>
+      <c r="L12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="46" t="s">
-        <v>75</v>
+      <c r="M12" s="35" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="25">
+      <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="B13" s="25" t="str">
+      <c r="B13" s="18" t="str">
         <f t="shared" ref="B13:B14" si="2">CONCATENATE($C$2, " - ", A13)</f>
         <v>A&amp;N - 2</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="18" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Announcements &amp; news </v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>118</v>
+      <c r="D13" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="G13" s="26"/>
       <c r="H13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="34">
+        <v>105</v>
+      </c>
+      <c r="I13" s="25">
         <v>44898</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="24" t="s">
+      <c r="K13" s="34"/>
+      <c r="L13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="46" t="s">
-        <v>75</v>
+      <c r="M13" s="35" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="25">
+      <c r="A14" s="18">
         <v>3</v>
       </c>
-      <c r="B14" s="25" t="str">
+      <c r="B14" s="18" t="str">
         <f t="shared" si="2"/>
         <v>A&amp;N - 3</v>
       </c>
-      <c r="C14" s="25" t="str">
+      <c r="C14" s="18" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Announcements &amp; news </v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>118</v>
+      <c r="D14" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="37"/>
+        <v>103</v>
+      </c>
+      <c r="G14" s="26"/>
       <c r="H14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="34">
+        <v>104</v>
+      </c>
+      <c r="I14" s="25">
         <v>44899</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="24" t="s">
+      <c r="K14" s="34"/>
+      <c r="L14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="46" t="s">
-        <v>75</v>
+      <c r="M14" s="35" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -31639,43 +31203,36 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J14">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J14">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="SKIPPED">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L14">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L14">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="SKIPPED">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="SKIPPED">
       <formula>NOT(ISERROR(SEARCH("SKIPPED",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31697,650 +31254,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E921800-DE33-4B1A-900D-2CBD9E6562A4}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:M17"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="8">
-        <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
-        <v>6</v>
-      </c>
-      <c r="D6" s="8">
-        <f>COUNTIF($J$12:$J$479, "PASS")</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="8">
-        <f>COUNTIF($J$12:$J$482,"FAIL")</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <f>COUNTIF($J$12:$J$482,"NOT IMPLEMENTED")</f>
-        <v>3</v>
-      </c>
-      <c r="G6" s="8">
-        <f>COUNTIF($J$12:$J$482,"SKIPPED")</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="8">
-        <f>COUNTIF($L$12:$L$480, "&lt;&gt;")</f>
-        <v>6</v>
-      </c>
-      <c r="D8" s="8">
-        <f>COUNTIF($L$12:$L$480, "PASS")</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="8">
-        <f>COUNTIF($L$12:$L$480, "FAIL")</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <f>COUNTIF($L$12:$L$480,"NOT IMPLEMENTED")</f>
-        <v>3</v>
-      </c>
-      <c r="G8" s="8">
-        <f>COUNTIF($L$12:$L$480, "SKIPPED")</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="84" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-    </row>
-    <row r="12" spans="1:13" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="str">
-        <f t="shared" ref="B12:B17" si="0">CONCATENATE($C$2, " - ", A12)</f>
-        <v>FR - 1</v>
-      </c>
-      <c r="C12" s="25" t="str">
-        <f>$C$1</f>
-        <v>Food Registration Feature</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="35">
-        <v>44897</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="str">
-        <f t="shared" ref="B13" si="1">CONCATENATE($C$2, " - ", A13)</f>
-        <v>FR - 2</v>
-      </c>
-      <c r="C13" s="25" t="str">
-        <f>$C$1</f>
-        <v>Food Registration Feature</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="35">
-        <v>44897</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="106.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FR - 3</v>
-      </c>
-      <c r="C14" s="25" t="str">
-        <f t="shared" ref="C14:C17" si="2">$C$1</f>
-        <v>Food Registration Feature</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="35">
-        <v>44897</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="125.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FR - 4</v>
-      </c>
-      <c r="C15" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Food Registration Feature</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="35">
-        <v>44897</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="113.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FR - 5</v>
-      </c>
-      <c r="C16" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Food Registration Feature</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="35">
-        <v>44897</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="139.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FR - 6</v>
-      </c>
-      <c r="C17" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Food Registration Feature</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="35">
-        <v>44897</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J12:J17 L12:L17">
-    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="36" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J17 L12:L17">
-    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="SKIPPED">
-      <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="34" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14 L14">
-    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="32" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14 L14">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="SKIPPED">
-      <formula>NOT(ISERROR(SEARCH("SKIPPED",J14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="30" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",J14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15 L15">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15 L15">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="SKIPPED">
-      <formula>NOT(ISERROR(SEARCH("SKIPPED",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",J15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16 L16">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="24" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16 L16">
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="SKIPPED">
-      <formula>NOT(ISERROR(SEARCH("SKIPPED",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",J16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17 L17">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17 L17">
-    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="SKIPPED">
-      <formula>NOT(ISERROR(SEARCH("SKIPPED",J17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="18" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",J17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{290ED686-94A3-4D17-B1A8-92DF4104C6C8}">
-          <x14:formula1>
-            <xm:f>'Test report '!$B$13:$B$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>L12:L17 J12:J17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94160BE8-8CBB-4237-B2CC-38ED3AA15A94}">
-          <x14:formula1>
-            <xm:f>'Test report '!$B$8:$B$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8AD977-4220-419A-B95A-985421C2CCEC}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L14" sqref="L14:L20"/>
     </sheetView>
   </sheetViews>
@@ -32363,17 +31281,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -32382,17 +31300,17 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -32401,15 +31319,15 @@
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -32418,17 +31336,17 @@
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -32437,23 +31355,23 @@
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="38" t="s">
         <v>9</v>
       </c>
       <c r="H5"/>
@@ -32464,25 +31382,25 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="50">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="39">
         <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
         <v>9</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="39">
         <f>COUNTIF($J$12:$J$473, "PASS")</f>
         <v>9</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="39">
         <f>COUNTIF($J$12:$J$476,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="39">
         <f>COUNTIF($J$12:$J$476,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="39">
         <f>COUNTIF($J$12:$J$476,"SKIPPED")</f>
         <v>0</v>
       </c>
@@ -32494,23 +31412,23 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="38" t="s">
         <v>9</v>
       </c>
       <c r="H7"/>
@@ -32521,25 +31439,25 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="50">
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="39">
         <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
         <v>9</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="39">
         <f>COUNTIF($J$12:$J$473, "PASS")</f>
         <v>9</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="39">
         <f>COUNTIF($J$12:$J$476,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="39">
         <f>COUNTIF($J$12:$J$476,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="39">
         <f>COUNTIF($J$12:$J$476,"SKIPPED")</f>
         <v>0</v>
       </c>
@@ -32566,402 +31484,409 @@
       <c r="M9"/>
     </row>
     <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="87" t="s">
+      <c r="H10" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="87" t="s">
+      <c r="I10" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="87" t="s">
+      <c r="J10" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="87" t="s">
+      <c r="K10" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="87" t="s">
+      <c r="L10" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="87" t="s">
-        <v>71</v>
+      <c r="M10" s="72" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="51">
+      <c r="A12" s="40">
         <v>1</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="44">
+        <v>45283</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="40">
+        <v>2</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="44">
+        <v>45283</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A14" s="40">
+        <v>3</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="44">
+        <v>45283</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="46"/>
+      <c r="L14" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A15" s="40">
+        <v>4</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="50"/>
+      <c r="H15" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="44">
+        <v>45283</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="46"/>
+      <c r="L15" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" s="40">
+        <v>5</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="44">
+        <v>45283</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="46"/>
+      <c r="L16" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A17" s="40">
+        <v>6</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="52" t="s">
+      <c r="H17" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="44">
+        <v>45283</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="108" x14ac:dyDescent="0.2">
+      <c r="A18" s="40">
+        <v>7</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="C18" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="55">
+      <c r="G18" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="44">
         <v>45283</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J18" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58" t="s">
+      <c r="K18" s="46"/>
+      <c r="L18" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="51">
-        <v>2</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="53" t="s">
+      <c r="M18" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+      <c r="A19" s="40">
+        <v>8</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="55">
+      <c r="G19" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="44">
         <v>45283</v>
       </c>
-      <c r="J13" s="56" t="s">
+      <c r="J19" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58" t="s">
+      <c r="K19" s="46"/>
+      <c r="L19" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A14" s="51">
-        <v>3</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="53" t="s">
+      <c r="M19" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" s="40">
+        <v>9</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="53" t="s">
+      <c r="C20" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I20" s="44">
         <v>45283</v>
       </c>
-      <c r="J14" s="100" t="s">
+      <c r="J20" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="101" t="s">
+      <c r="K20" s="46"/>
+      <c r="L20" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
-        <v>4</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="55">
-        <v>45283</v>
-      </c>
-      <c r="J15" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="51">
-        <v>5</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="55">
-        <v>45283</v>
-      </c>
-      <c r="J16" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A17" s="51">
-        <v>6</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="55">
-        <v>45283</v>
-      </c>
-      <c r="J17" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="108" x14ac:dyDescent="0.2">
-      <c r="A18" s="51">
-        <v>7</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="55">
-        <v>45283</v>
-      </c>
-      <c r="J18" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="126" x14ac:dyDescent="0.2">
-      <c r="A19" s="51">
-        <v>8</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" s="55">
-        <v>45283</v>
-      </c>
-      <c r="J19" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="51">
-        <v>9</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="55">
-        <v>45283</v>
-      </c>
-      <c r="J20" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="59" t="s">
-        <v>129</v>
+      <c r="M20" s="48" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -32978,13 +31903,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J13 L12:L13">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAIL">

--- a/Test Case Template.xlsx
+++ b/Test Case Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiminhtamnguyen/Documents/GitHub/bai-tap-nhom-kho-chiu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5EA0A8-989B-2A42-A338-FEFD7480FF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646499DD-C8A9-3C4F-A886-778CA088728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test report " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="132">
   <si>
     <t>Test report</t>
   </si>
@@ -166,46 +166,7 @@
     <t>Show same with UI design</t>
   </si>
   <si>
-    <t>FR - X</t>
-  </si>
-  <si>
-    <t>Login for Staff Feature</t>
-  </si>
-  <si>
-    <t>Logout for Staff Feature</t>
-  </si>
-  <si>
-    <t>Food Registration Feature</t>
-  </si>
-  <si>
-    <t>Receive Bill Feature</t>
-  </si>
-  <si>
-    <t>Face Recognition Feature</t>
-  </si>
-  <si>
-    <t>LOfS - X</t>
-  </si>
-  <si>
-    <t>RB - X</t>
-  </si>
-  <si>
-    <t>LfS - X</t>
-  </si>
-  <si>
-    <t>Personal Profile Feature</t>
-  </si>
-  <si>
-    <t>PP - X</t>
-  </si>
-  <si>
     <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>View Menu Feature</t>
-  </si>
-  <si>
-    <t>VM - X</t>
   </si>
   <si>
     <t>Assign to</t>
@@ -476,6 +437,18 @@
   <si>
     <t>Chan Phuoc Nhan</t>
   </si>
+  <si>
+    <t>VM&amp;I-X</t>
+  </si>
+  <si>
+    <t>A&amp;N-X</t>
+  </si>
+  <si>
+    <t>Announcements &amp; news </t>
+  </si>
+  <si>
+    <t>CPM-X</t>
+  </si>
 </sst>
 </file>
 
@@ -484,7 +457,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,12 +535,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -656,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -720,19 +687,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -753,17 +707,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -812,11 +755,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -846,7 +789,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,19 +805,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -895,22 +832,22 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,7 +866,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -938,10 +875,10 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,8 +890,14 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -964,12 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -978,6 +915,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -985,19 +934,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1008,6 +951,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1016,16 +960,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,16 +978,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1500,8 +1438,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1514,14 +1452,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1607,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1723,11 +1661,11 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="51" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1754,9 +1692,9 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1783,8 +1721,8 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="85"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1810,8 +1748,8 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1864,7 +1802,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1895,7 +1833,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
@@ -1924,7 +1862,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
@@ -1953,7 +1891,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
@@ -2077,16 +2015,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="24">
-        <v>44884</v>
+        <v>128</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="83">
+        <v>45249</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2114,16 +2052,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="24">
-        <v>44884</v>
+        <v>129</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="83">
+        <v>45250</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2151,16 +2089,16 @@
         <v>3</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="24">
-        <v>44884</v>
+        <v>94</v>
+      </c>
+      <c r="E22" s="83">
+        <v>45251</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2184,21 +2122,11 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
-        <v>4</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="24">
-        <v>44884</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2221,21 +2149,13 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
-        <v>5</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="24">
-        <v>44884</v>
-      </c>
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2258,21 +2178,11 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
-        <v>6</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="24">
-        <v>44884</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2295,21 +2205,11 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
-        <v>7</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="24">
-        <v>44884</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2332,10 +2232,10 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2360,9 +2260,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -29776,7 +29674,6 @@
     <row r="1007" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1007" s="1"/>
       <c r="B1007" s="1"/>
-      <c r="C1007" s="1"/>
       <c r="D1007" s="1"/>
       <c r="E1007" s="1"/>
       <c r="F1007" s="1"/>
@@ -29804,7 +29701,6 @@
     <row r="1008" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1008" s="1"/>
       <c r="B1008" s="1"/>
-      <c r="C1008" s="1"/>
       <c r="D1008" s="1"/>
       <c r="E1008" s="1"/>
       <c r="F1008" s="1"/>
@@ -29831,8 +29727,6 @@
     </row>
     <row r="1009" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1009" s="1"/>
-      <c r="B1009" s="1"/>
-      <c r="C1009" s="1"/>
       <c r="D1009" s="1"/>
       <c r="E1009" s="1"/>
       <c r="F1009" s="1"/>
@@ -29858,11 +29752,6 @@
       <c r="Z1009" s="1"/>
     </row>
     <row r="1010" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1010" s="1"/>
-      <c r="B1010" s="1"/>
-      <c r="C1010" s="1"/>
-      <c r="D1010" s="1"/>
-      <c r="E1010" s="1"/>
       <c r="F1010" s="1"/>
       <c r="G1010" s="1"/>
       <c r="H1010" s="1"/>
@@ -29886,10 +29775,6 @@
       <c r="Z1010" s="1"/>
     </row>
     <row r="1011" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1011" s="1"/>
-      <c r="B1011" s="1"/>
-      <c r="D1011" s="1"/>
-      <c r="E1011" s="1"/>
       <c r="F1011" s="1"/>
       <c r="G1011" s="1"/>
       <c r="H1011" s="1"/>
@@ -29913,10 +29798,6 @@
       <c r="Z1011" s="1"/>
     </row>
     <row r="1012" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1012" s="1"/>
-      <c r="B1012" s="1"/>
-      <c r="D1012" s="1"/>
-      <c r="E1012" s="1"/>
       <c r="F1012" s="1"/>
       <c r="G1012" s="1"/>
       <c r="H1012" s="1"/>
@@ -29940,9 +29821,6 @@
       <c r="Z1012" s="1"/>
     </row>
     <row r="1013" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1013" s="1"/>
-      <c r="D1013" s="1"/>
-      <c r="E1013" s="1"/>
       <c r="F1013" s="1"/>
       <c r="G1013" s="1"/>
       <c r="H1013" s="1"/>
@@ -30002,72 +29880,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -30090,9 +29968,9 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -30118,9 +29996,9 @@
         <f>COUNTIF($J$12:$J$477,"SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -30143,9 +30021,9 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -30171,9 +30049,9 @@
         <f>COUNTIF($L$12:$L$475, "SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -30191,546 +30069,532 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="57" t="s">
-        <v>54</v>
+      <c r="M10" s="65" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>1</v>
       </c>
-      <c r="B12" s="26" t="str">
+      <c r="B12" s="22" t="str">
         <f t="shared" ref="B12:B23" si="0">CONCATENATE($C$2, " - ", A12)</f>
         <v>VMaI - 1</v>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="22" t="str">
         <f>$C$1</f>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="26" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="27" t="s">
+      <c r="I12" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="27" t="s">
+      <c r="K12" s="24"/>
+      <c r="L12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="32" t="s">
-        <v>55</v>
+      <c r="M12" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="59" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+      <c r="A13" s="20">
         <v>2</v>
       </c>
-      <c r="B13" s="26" t="str">
+      <c r="B13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 2</v>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="22" t="str">
         <f>$C$1</f>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="27" t="s">
+      <c r="D13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="27" t="s">
+      <c r="K13" s="24"/>
+      <c r="L13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="32" t="s">
-        <v>55</v>
+      <c r="M13" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="88.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+      <c r="A14" s="20">
         <v>3</v>
       </c>
-      <c r="B14" s="26" t="str">
+      <c r="B14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 3</v>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="22" t="str">
         <f t="shared" ref="C14:C23" si="1">$C$1</f>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="27" t="s">
+      <c r="I14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="27" t="s">
+      <c r="K14" s="24"/>
+      <c r="L14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="32" t="s">
-        <v>55</v>
+      <c r="M14" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+      <c r="A15" s="20">
         <v>4</v>
       </c>
-      <c r="B15" s="26" t="str">
+      <c r="B15" s="22" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 4</v>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="22" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="27" t="s">
+      <c r="I15" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="27" t="s">
+      <c r="K15" s="24"/>
+      <c r="L15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="32" t="s">
-        <v>55</v>
+      <c r="M15" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+      <c r="A16" s="20">
         <v>5</v>
       </c>
-      <c r="B16" s="26" t="str">
+      <c r="B16" s="22" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 5</v>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="22" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="27" t="s">
+      <c r="D16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="27" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="32" t="s">
-        <v>55</v>
+      <c r="M16" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
+      <c r="A17" s="20">
         <v>6</v>
       </c>
-      <c r="B17" s="26" t="str">
+      <c r="B17" s="22" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 6</v>
       </c>
-      <c r="C17" s="26" t="str">
+      <c r="C17" s="22" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="27" t="s">
+      <c r="D17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="27" t="s">
+      <c r="K17" s="24"/>
+      <c r="L17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="32" t="s">
-        <v>55</v>
+      <c r="M17" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A18" s="22">
+      <c r="A18" s="20">
         <v>7</v>
       </c>
-      <c r="B18" s="26" t="str">
+      <c r="B18" s="22" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 7</v>
       </c>
-      <c r="C18" s="26" t="str">
+      <c r="C18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="33" t="s">
+      <c r="D18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="27" t="s">
+      <c r="K18" s="24"/>
+      <c r="L18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="32" t="s">
-        <v>55</v>
+      <c r="M18" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A19" s="22">
+      <c r="A19" s="20">
         <v>8</v>
       </c>
-      <c r="B19" s="26" t="str">
+      <c r="B19" s="22" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 8</v>
       </c>
-      <c r="C19" s="26" t="str">
+      <c r="C19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="27" t="s">
+      <c r="D19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="27" t="s">
+      <c r="K19" s="24"/>
+      <c r="L19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="32" t="s">
-        <v>55</v>
+      <c r="M19" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
+      <c r="A20" s="20">
         <v>9</v>
       </c>
-      <c r="B20" s="26" t="str">
+      <c r="B20" s="22" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 9</v>
       </c>
-      <c r="C20" s="26" t="str">
+      <c r="C20" s="22" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="27" t="s">
+      <c r="D20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="27" t="s">
+      <c r="K20" s="24"/>
+      <c r="L20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="32" t="s">
-        <v>55</v>
+      <c r="M20" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
+      <c r="A21" s="20">
         <v>10</v>
       </c>
-      <c r="B21" s="26" t="str">
+      <c r="B21" s="22" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 10</v>
       </c>
-      <c r="C21" s="26" t="str">
+      <c r="C21" s="22" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="27" t="s">
+      <c r="D21" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="27" t="s">
+      <c r="K21" s="24"/>
+      <c r="L21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="32" t="s">
-        <v>55</v>
+      <c r="M21" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A22" s="22">
+      <c r="A22" s="20">
         <v>11</v>
       </c>
-      <c r="B22" s="26" t="str">
+      <c r="B22" s="22" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 11</v>
       </c>
-      <c r="C22" s="26" t="str">
+      <c r="C22" s="22" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="26" t="s">
+      <c r="D22" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="27" t="s">
+      <c r="G22" s="27"/>
+      <c r="H22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="27" t="s">
+      <c r="K22" s="24"/>
+      <c r="L22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="32" t="s">
-        <v>55</v>
+      <c r="M22" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A23" s="22">
+      <c r="A23" s="20">
         <v>12</v>
       </c>
-      <c r="B23" s="26" t="str">
+      <c r="B23" s="22" t="str">
         <f t="shared" si="0"/>
         <v>VMaI - 12</v>
       </c>
-      <c r="C23" s="26" t="str">
+      <c r="C23" s="22" t="str">
         <f t="shared" si="1"/>
         <v>View Menu and Invoice</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="27" t="s">
+      <c r="D23" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="27" t="s">
+      <c r="K23" s="24"/>
+      <c r="L23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="32" t="s">
-        <v>55</v>
+      <c r="M23" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
@@ -30740,8 +30604,22 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="J12:J23">
     <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
@@ -30817,72 +30695,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -30905,9 +30783,9 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -30933,9 +30811,9 @@
         <f>COUNTIF($J$12:$J$491,"SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -30958,9 +30836,9 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -30986,9 +30864,9 @@
         <f>COUNTIF($L$12:$L$489, "SKIPPED")</f>
         <v>0</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -31006,60 +30884,60 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="70" t="s">
+      <c r="L10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="70" t="s">
-        <v>54</v>
+      <c r="M10" s="68" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
@@ -31073,31 +30951,31 @@
         <f t="shared" ref="C12:C14" si="1">$C$1</f>
         <v xml:space="preserve">Announcements &amp; news </v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="26"/>
+        <v>86</v>
+      </c>
+      <c r="G12" s="22"/>
       <c r="H12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="25">
+        <v>93</v>
+      </c>
+      <c r="I12" s="21">
         <v>44897</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="35" t="s">
-        <v>55</v>
+      <c r="M12" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -31112,31 +30990,31 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Announcements &amp; news </v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>100</v>
+      <c r="D13" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="26"/>
+        <v>88</v>
+      </c>
+      <c r="G13" s="22"/>
       <c r="H13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="25">
+        <v>92</v>
+      </c>
+      <c r="I13" s="21">
         <v>44898</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="35" t="s">
-        <v>55</v>
+      <c r="M13" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -31151,42 +31029,35 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Announcements &amp; news </v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>102</v>
+      <c r="D14" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="26"/>
+        <v>90</v>
+      </c>
+      <c r="G14" s="22"/>
       <c r="H14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="25">
+        <v>91</v>
+      </c>
+      <c r="I14" s="21">
         <v>44899</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="35" t="s">
-        <v>55</v>
+      <c r="M14" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -31203,6 +31074,13 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J14">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="FAIL">
@@ -31258,7 +31136,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L14" sqref="L14:L20"/>
     </sheetView>
   </sheetViews>
@@ -31281,17 +31159,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="75"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -31300,17 +31178,17 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -31319,15 +31197,15 @@
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -31336,17 +31214,17 @@
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -31355,23 +31233,23 @@
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H5"/>
@@ -31382,25 +31260,25 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="39">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="35">
         <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
         <v>9</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="35">
         <f>COUNTIF($J$12:$J$473, "PASS")</f>
         <v>9</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <f>COUNTIF($J$12:$J$476,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="35">
         <f>COUNTIF($J$12:$J$476,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="35">
         <f>COUNTIF($J$12:$J$476,"SKIPPED")</f>
         <v>0</v>
       </c>
@@ -31412,23 +31290,23 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H7"/>
@@ -31439,25 +31317,25 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="39">
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="35">
         <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
         <v>9</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="35">
         <f>COUNTIF($J$12:$J$473, "PASS")</f>
         <v>9</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="35">
         <f>COUNTIF($J$12:$J$476,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="35">
         <f>COUNTIF($J$12:$J$476,"NOT IMPLEMENTED")</f>
         <v>0</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="35">
         <f>COUNTIF($J$12:$J$476,"SKIPPED")</f>
         <v>0</v>
       </c>
@@ -31484,409 +31362,402 @@
       <c r="M9"/>
     </row>
     <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="72" t="s">
+      <c r="L10" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="72" t="s">
-        <v>54</v>
+      <c r="M10" s="70" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40">
+      <c r="A12" s="36">
         <v>1</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="40">
+        <v>45283</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="40">
+        <v>45283</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A14" s="36">
+        <v>3</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="40">
+        <v>45283</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A15" s="36">
+        <v>4</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="40">
+        <v>45283</v>
+      </c>
+      <c r="J15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" s="36">
+        <v>5</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="41" t="s">
+      <c r="C16" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="E16" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="44">
+      <c r="G16" s="46"/>
+      <c r="H16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="40">
         <v>45283</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47" t="s">
+      <c r="K16" s="42"/>
+      <c r="L16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40">
-        <v>2</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="41" t="s">
+      <c r="M16" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A17" s="36">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="C17" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="40">
+        <v>45283</v>
+      </c>
+      <c r="J17" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="108" x14ac:dyDescent="0.2">
+      <c r="A18" s="36">
+        <v>7</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="40">
+        <v>45283</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+      <c r="A19" s="36">
+        <v>8</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="40">
+        <v>45283</v>
+      </c>
+      <c r="J19" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" s="36">
+        <v>9</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="E20" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="44">
+      <c r="G20"/>
+      <c r="H20" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="40">
         <v>45283</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J20" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47" t="s">
+      <c r="K20" s="42"/>
+      <c r="L20" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A14" s="40">
-        <v>3</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="44">
-        <v>45283</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="46"/>
-      <c r="L14" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="40">
-        <v>4</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="44">
-        <v>45283</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="46"/>
-      <c r="L15" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="40">
-        <v>5</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="44">
-        <v>45283</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="46"/>
-      <c r="L16" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A17" s="40">
-        <v>6</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="44">
-        <v>45283</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="46"/>
-      <c r="L17" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="108" x14ac:dyDescent="0.2">
-      <c r="A18" s="40">
-        <v>7</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="44">
-        <v>45283</v>
-      </c>
-      <c r="J18" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="126" x14ac:dyDescent="0.2">
-      <c r="A19" s="40">
-        <v>8</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="44">
-        <v>45283</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="46"/>
-      <c r="L19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="40">
-        <v>9</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" s="44">
-        <v>45283</v>
-      </c>
-      <c r="J20" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="48" t="s">
-        <v>109</v>
+      <c r="M20" s="44" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -31903,6 +31774,13 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J13 L12:L13">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAIL">

--- a/Test Case Template.xlsx
+++ b/Test Case Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiminhtamnguyen/Documents/GitHub/bai-tap-nhom-kho-chiu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646499DD-C8A9-3C4F-A886-778CA088728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC400EBD-376A-2044-907D-6C83414DD2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,12 +542,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -899,6 +901,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -907,6 +910,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -915,6 +924,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -927,21 +945,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -951,7 +954,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -978,10 +980,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1452,14 +1454,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1661,7 +1663,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -1692,7 +1694,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="15" t="s">
         <v>127</v>
       </c>
@@ -1802,7 +1804,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="52" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1833,7 +1835,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +1864,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
@@ -1891,7 +1893,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2025,7 @@
       <c r="D20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="51">
         <v>45249</v>
       </c>
       <c r="F20" s="1"/>
@@ -2060,7 +2062,7 @@
       <c r="D21" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E21" s="51">
         <v>45250</v>
       </c>
       <c r="F21" s="1"/>
@@ -2097,7 +2099,7 @@
       <c r="D22" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="83">
+      <c r="E22" s="51">
         <v>45251</v>
       </c>
       <c r="F22" s="1"/>
@@ -29880,14 +29882,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="58"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
@@ -29898,14 +29900,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -29916,12 +29918,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -29932,14 +29934,14 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="H4" s="19"/>
@@ -29949,10 +29951,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -29974,8 +29976,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="14">
         <f>COUNTIF($J$12:$J$475, "&lt;&gt;")</f>
         <v>12</v>
@@ -30002,10 +30004,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -30027,8 +30029,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="14">
         <f>COUNTIF($L$12:$L$475, "&lt;&gt;")</f>
         <v>12</v>
@@ -30069,60 +30071,60 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="M10" s="56" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.15">
       <c r="A12" s="20">
@@ -30595,6 +30597,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
@@ -30604,20 +30620,6 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="J12:J23">
@@ -30695,14 +30697,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="58"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
@@ -30713,14 +30715,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -30731,12 +30733,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -30747,14 +30749,14 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="H4" s="19"/>
@@ -30764,10 +30766,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -30789,8 +30791,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="14">
         <f>COUNTIF($J$12:$J$489, "&lt;&gt;")</f>
         <v>3</v>
@@ -30817,10 +30819,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -30842,8 +30844,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="14">
         <f>COUNTIF($L$12:$L$489, "&lt;&gt;")</f>
         <v>3</v>
@@ -30884,60 +30886,60 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="I10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="68" t="s">
+      <c r="M10" s="69" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
@@ -31058,6 +31060,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -31074,13 +31083,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J14">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="FAIL">
@@ -31362,60 +31364,60 @@
       <c r="M9"/>
     </row>
     <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="70" t="s">
+      <c r="L10" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36">
@@ -31758,6 +31760,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -31774,13 +31783,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J13 L12:L13">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAIL">

--- a/Test Case Template.xlsx
+++ b/Test Case Template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiminhtamnguyen/Documents/GitHub/bai-tap-nhom-kho-chiu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC400EBD-376A-2044-907D-6C83414DD2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF31CB67-9646-4945-8E4C-9C12738B453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test report " sheetId="1" r:id="rId1"/>
     <sheet name="View Menu and Invoice" sheetId="11" r:id="rId2"/>
     <sheet name="Announcements &amp; news " sheetId="21" r:id="rId3"/>
-    <sheet name="View Menu Feature" sheetId="24" r:id="rId4"/>
+    <sheet name="Choose payment method_x0009_" sheetId="24" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -910,12 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -924,15 +918,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -945,6 +930,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,6 +954,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -980,7 +981,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1440,7 +1440,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:B22"/>
     </sheetView>
   </sheetViews>
@@ -29882,14 +29882,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="61"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
@@ -29900,14 +29900,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -29918,12 +29918,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -29934,14 +29934,14 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="H4" s="19"/>
@@ -29951,10 +29951,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -29976,8 +29976,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="14">
         <f>COUNTIF($J$12:$J$475, "&lt;&gt;")</f>
         <v>12</v>
@@ -30004,10 +30004,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -30029,8 +30029,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="14">
         <f>COUNTIF($L$12:$L$475, "&lt;&gt;")</f>
         <v>12</v>
@@ -30071,60 +30071,60 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="56" t="s">
+      <c r="M10" s="66" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.15">
       <c r="A12" s="20">
@@ -30597,20 +30597,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
@@ -30620,6 +30606,20 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="J12:J23">
@@ -30697,14 +30697,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="61"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
@@ -30715,14 +30715,14 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -30733,12 +30733,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -30749,14 +30749,14 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="H4" s="19"/>
@@ -30766,10 +30766,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -30791,8 +30791,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="14">
         <f>COUNTIF($J$12:$J$489, "&lt;&gt;")</f>
         <v>3</v>
@@ -30819,10 +30819,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -30844,8 +30844,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="14">
         <f>COUNTIF($L$12:$L$489, "&lt;&gt;")</f>
         <v>3</v>
@@ -31060,13 +31060,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -31083,6 +31076,13 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J14">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="FAIL">
@@ -31138,8 +31138,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:L20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -31161,14 +31161,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="75"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
@@ -31180,14 +31180,14 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
@@ -31199,12 +31199,12 @@
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -31216,14 +31216,14 @@
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="33"/>
@@ -31235,10 +31235,10 @@
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="34" t="s">
         <v>21</v>
       </c>
@@ -31262,8 +31262,8 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="35">
         <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
         <v>9</v>
@@ -31292,10 +31292,10 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="34" t="s">
         <v>21</v>
       </c>
@@ -31319,8 +31319,8 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="35">
         <f>COUNTIF($J$12:$J$480, "&lt;&gt;")</f>
         <v>9</v>
@@ -31405,14 +31405,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="71"/>
       <c r="J11" s="71"/>
       <c r="K11" s="71"/>
@@ -31760,13 +31760,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -31783,6 +31776,13 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J13 L12:L13">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAIL">
